--- a/F3K_Battery_manager.xlsx
+++ b/F3K_Battery_manager.xlsx
@@ -11,13 +11,13 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'F3K_Battery_manager. '!$I$1</definedName>
-    <definedName name="digikey_part_data">'F3K_Battery_manager. '!$J$5:$N$44</definedName>
-    <definedName name="farnell_part_data">'F3K_Battery_manager. '!$O$5:$S$44</definedName>
-    <definedName name="global_part_data">'F3K_Battery_manager. '!$A$5:$I$44</definedName>
-    <definedName name="mouser_part_data">'F3K_Battery_manager. '!$T$5:$X$44</definedName>
-    <definedName name="newark_part_data">'F3K_Battery_manager. '!$Y$5:$AC$44</definedName>
-    <definedName name="rs_part_data">'F3K_Battery_manager. '!$AD$5:$AH$44</definedName>
-    <definedName name="tme_part_data">'F3K_Battery_manager. '!$AI$5:$AM$44</definedName>
+    <definedName name="digikey_part_data">'F3K_Battery_manager. '!$J$5:$N$36</definedName>
+    <definedName name="farnell_part_data">'F3K_Battery_manager. '!$O$5:$S$36</definedName>
+    <definedName name="global_part_data">'F3K_Battery_manager. '!$A$5:$I$36</definedName>
+    <definedName name="mouser_part_data">'F3K_Battery_manager. '!$T$5:$X$36</definedName>
+    <definedName name="newark_part_data">'F3K_Battery_manager. '!$Y$5:$AC$36</definedName>
+    <definedName name="rs_part_data">'F3K_Battery_manager. '!$AD$5:$AH$36</definedName>
+    <definedName name="tme_part_data">'F3K_Battery_manager. '!$AI$5:$AM$36</definedName>
     <definedName name="TotalCost">'F3K_Battery_manager. '!$I$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -687,13 +687,13 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $4.90      $4.90
-     5   $3.79     $18.95
-    10   $3.30     $33.03
+     1   $4.75      $4.75
+     5   $3.61     $18.07
+    10   $3.09     $30.91
     20   $3.07     $61.32
     40   $2.57    $102.70
-   100   $2.08    $208.15
-   500   $1.92    $959.73</t>
+   100   $2.02    $201.92
+   500   $1.79    $897.41</t>
         </r>
       </text>
     </comment>
@@ -756,16 +756,14 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.11      $0.11
-    10   $0.08      $0.81
-   100   $0.04      $3.80
-   500   $0.03     $13.32
-  1000   $0.02     $22.05
-  2500   $0.02     $51.30
-  5000   $0.02     $93.90
- 10000   $0.02    $159.40
- 20000   $0.02    $303.60
- 30000   $0.01    $432.60</t>
+     1   $0.13      $0.13
+    10   $0.09      $0.92
+   100   $0.04      $4.32
+   500   $0.03     $15.14
+  1000   $0.03     $25.06
+  2500   $0.02     $58.30
+  5000   $0.02    $106.70
+ 10000   $0.02    $181.10</t>
         </r>
       </text>
     </comment>
@@ -782,13 +780,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.05      $0.52
-   100   $0.02      $2.33
-   500   $0.02      $8.33
-  1000   $0.01     $13.09
-  2500   $0.01     $29.75
-  5000   $0.01     $54.75
- 10000   $0.01     $86.90</t>
+    10   $0.04      $0.45
+   100   $0.02      $1.98
+   500   $0.01      $7.08
+  1000   $0.01     $11.13
+  2500   $0.01     $25.30
+  5000   $0.01     $46.55
+ 10000   $0.01     $73.90
+ 20000   $0.01    $140.80
+ 30000   $0.01    $200.70</t>
         </r>
       </text>
     </comment>
@@ -805,12 +805,12 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.03      $0.03
-   100   $0.03      $3.19
-   500   $0.02      $8.54
-  2500   $0.01     $29.29
-  5000   $0.01     $54.22
- 10000   $0.01     $77.28
- 50000   $0.01    $267.98</t>
+   100   $0.03      $3.12
+   500   $0.02      $9.16
+  2500   $0.01     $28.98
+  5000   $0.01     $48.61
+ 10000   $0.01     $74.78
+ 50000   $0.01    $342.76</t>
         </r>
       </text>
     </comment>
@@ -826,81 +826,18 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.05      $0.05
-    10   $0.05      $0.50
-    25   $0.04      $1.03
-    50   $0.03      $1.60
-   100   $0.02      $2.30
-   250   $0.02      $5.00
-   500   $0.02      $8.00
-  1000   $0.01     $13.00</t>
+     1   $0.04      $0.04
+    10   $0.04      $0.38
+    25   $0.03      $0.78
+    50   $0.02      $1.20
+   100   $0.02      $1.70
+   250   $0.01      $3.75
+   500   $0.01      $6.00
+  1000   $0.01     $10.00</t>
         </r>
       </text>
     </comment>
     <comment ref="L11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.90      $0.90
-    10   $0.69      $6.88
-   100   $0.49     $49.20
-   500   $0.38    $190.44
-  1000   $0.33    $327.98
-  2000   $0.28    $552.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.28      $0.28
-  2000   $0.28    $565.87
- 10000   $0.28   $2767.01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $1.26      $1.26
-     5   $1.26      $6.30
-    10   $1.05     $10.50
-    25   $0.89     $22.12
-    50   $0.72     $36.05
-   100   $0.56     $55.60
-   250   $0.53    $132.00
-   500   $0.50    $250.00
-  1000   $0.46    $456.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0">
+    <comment ref="Q11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA13" authorId="0">
+    <comment ref="AA11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0">
+    <comment ref="L12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -995,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="0">
+    <comment ref="L13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,16 +944,16 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.27      $0.27
-    10   $0.19      $1.86
-   100   $0.11     $10.55
-   500   $0.07     $37.22
-  1000   $0.07     $65.14
-  4000   $0.05    $215.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q15" authorId="0">
+     1   $0.29      $0.29
+    10   $0.20      $2.02
+   100   $0.11     $11.43
+   500   $0.08     $40.33
+  1000   $0.07     $70.57
+  4000   $0.06    $233.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y15" authorId="0">
+    <comment ref="Y13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1049,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA15" authorId="0">
+    <comment ref="AA13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1068,98 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.38      $0.38
-    10   $0.27      $2.65
-   100   $0.16     $15.87
-   500   $0.12     $59.51
-  1000   $0.10    $100.51
-  4000   $0.08    $312.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.04      $0.45
-   100   $0.02      $1.98
-   500   $0.01      $7.08
-  1000   $0.01     $11.13
-  2500   $0.01     $25.30
-  5000   $0.01     $46.55
- 10000   $0.01     $73.90
- 20000   $0.01    $140.80
- 30000   $0.01    $200.70</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.03      $0.03
-   100   $0.03      $3.12
-   500   $0.02      $9.16
-  2500   $0.01     $28.98
-  5000   $0.01     $48.61
- 10000   $0.01     $74.78
- 50000   $0.01    $342.76</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.04      $0.04
-    10   $0.04      $0.38
-    25   $0.03      $0.78
-    50   $0.02      $1.20
-   100   $0.02      $1.70
-   250   $0.01      $3.75
-   500   $0.01      $6.00
-  1000   $0.01     $10.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L18" authorId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="0">
+    <comment ref="L16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1211,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q19" authorId="0">
+    <comment ref="Q16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1080,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA19" authorId="0">
+    <comment ref="Y16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1257,75 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $1.45      $1.45
-    10   $1.35     $13.46
-   100   $0.97     $97.29
-   500   $0.75    $372.60
-  1000   $0.66    $662.40
-  3000   $0.56   $1674.00
-  6000   $0.54   $3240.00
- 15000   $0.52   $7830.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $1.58      $1.58
-     5   $1.58      $7.91
-    50   $1.00     $50.23
-   250   $0.91    $227.78
-   500   $0.68    $342.14
-  1500   $0.66    $996.50
-  3000   $0.64   $1933.17
- 15000   $0.62   $9348.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $1.44      $1.44
-    25   $1.08     $27.00
-    50   $1.01     $50.50
-   100   $0.94     $93.60
-   250   $0.88    $220.50
-   500   $0.83    $414.00
-  1000   $0.76    $756.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L26" authorId="0">
+    <comment ref="L22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1351,7 +1142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0">
+    <comment ref="Q22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1374,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA26" authorId="0">
+    <comment ref="AA22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1395,7 +1186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L27" authorId="0">
+    <comment ref="L23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1421,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0">
+    <comment ref="Q23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA27" authorId="0">
+    <comment ref="AA23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L41" authorId="0">
+    <comment ref="L33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q41" authorId="0">
+    <comment ref="Q33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA41" authorId="0">
+    <comment ref="AA33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1321,86 @@
         </r>
       </text>
     </comment>
-    <comment ref="L42" authorId="0">
+    <comment ref="L34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.72      $0.72
+    10   $0.64      $6.36
+   100   $0.49     $48.73
+   250   $0.44    $109.86
+   500   $0.34    $169.95
+  1000   $0.27    $271.92
+  1250   $0.30    $374.00
+  3000   $0.24    $717.75
+  6000   $0.22   $1336.50
+ 15000   $0.21   $3217.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.70      $0.70
+    50   $0.61     $30.72
+   100   $0.40     $39.64
+   250   $0.39     $98.47
+   500   $0.39    $195.06
+  1000   $0.39    $386.38
+  2500   $0.38    $959.73
+  5000   $0.38   $1900.76</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.44      $0.44
+  1500   $0.44    $666.00
+  5000   $0.40   $2010.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q42" authorId="0">
+    <comment ref="Q35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1576,7 +1446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA42" authorId="0">
+    <comment ref="AA35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1594,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L43" authorId="0">
+    <comment ref="L36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1616,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q43" authorId="0">
+    <comment ref="Q36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1628,16 +1498,16 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.52      $1.52
-    10   $1.43     $14.33
-    25   $1.32     $33.03
-    50   $1.27     $63.57
-   100   $1.15    $114.67
-   250   $1.11    $277.32</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA43" authorId="0">
+     1   $1.43      $1.43
+    10   $1.36     $13.59
+    25   $1.24     $31.04
+    50   $1.20     $59.95
+   100   $1.09    $108.56
+   250   $1.04    $260.81</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1660,62 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $2.40      $2.40
-    10   $2.15     $21.54
-   100   $1.73    $173.10
-   250   $1.58    $394.50
-   500   $1.24    $618.26
-  1000   $1.02   $1024.54
-  1250   $1.14   $1430.06
-  3000   $0.93   $2778.30
-  6000   $0.89   $5350.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $1.45      $1.45
-   500   $1.45    $725.00
-  1000   $1.36   $1360.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K46" authorId="0">
+    <comment ref="K38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1728,7 +1543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P46" authorId="0">
+    <comment ref="P38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U46" authorId="0">
+    <comment ref="U38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1754,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z46" authorId="0">
+    <comment ref="Z38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1767,7 +1582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE46" authorId="0">
+    <comment ref="AE38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1780,7 +1595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ46" authorId="0">
+    <comment ref="AJ38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1798,7 +1613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1848,7 +1663,7 @@
     <t>Buzzer</t>
   </si>
   <si>
-    <t>C1-C7,C23</t>
+    <t>C1,C4-C9,C21</t>
   </si>
   <si>
     <t>GRM155D80J225KE95D</t>
@@ -1860,81 +1675,51 @@
     <t>2u2 6V3</t>
   </si>
   <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>GRM1555C1H100FA01D</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C2012X5R0J336M125AC</t>
-  </si>
-  <si>
-    <t>Capacitors_SMD:C_0805</t>
-  </si>
-  <si>
-    <t>33uF 6V3</t>
-  </si>
-  <si>
-    <t>C12,C13</t>
+    <t>C12,C17</t>
+  </si>
+  <si>
+    <t>GCM155R71E103KA37D</t>
+  </si>
+  <si>
+    <t>10nF 10V</t>
+  </si>
+  <si>
+    <t>C13,C16</t>
+  </si>
+  <si>
+    <t>GCM155R71H223KA55D</t>
+  </si>
+  <si>
+    <t>22nF 25V</t>
+  </si>
+  <si>
+    <t>C14,C15,C20</t>
+  </si>
+  <si>
+    <t>GRT155R61E474KE01D</t>
+  </si>
+  <si>
+    <t>470nF 25V</t>
+  </si>
+  <si>
+    <t>C18,C19</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R7BB475</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0603</t>
+  </si>
+  <si>
+    <t>4u7 16V</t>
+  </si>
+  <si>
+    <t>C2,C3,C10,C11</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>C15,C18</t>
-  </si>
-  <si>
-    <t>GCM155R71H223KA55D</t>
-  </si>
-  <si>
-    <t>22nF 25V</t>
-  </si>
-  <si>
-    <t>C16,C17,C22</t>
-  </si>
-  <si>
-    <t>GRT155R61E474KE01D</t>
-  </si>
-  <si>
-    <t>470nF 25V</t>
-  </si>
-  <si>
-    <t>C20,C21</t>
-  </si>
-  <si>
-    <t>CC0603KRX5R7BB475</t>
-  </si>
-  <si>
-    <t>Capacitors_SMD:C_0603</t>
-  </si>
-  <si>
-    <t>4u7 16V</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C1608X5R0G156M080AA</t>
-  </si>
-  <si>
-    <t>15uF 4V</t>
-  </si>
-  <si>
-    <t>C9,C14,C19</t>
-  </si>
-  <si>
-    <t>GCM155R71E103KA37D</t>
-  </si>
-  <si>
-    <t>10nF 10V</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -1989,15 +1774,6 @@
     <t>Receiver</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>IHLP1212BZER1R0M11</t>
-  </si>
-  <si>
-    <t>1.2 uH 18mOhm</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -2010,7 +1786,7 @@
     <t>CSD13380F3</t>
   </si>
   <si>
-    <t>R1,R4</t>
+    <t>R1,R5</t>
   </si>
   <si>
     <t>Resistors_SMD:R_0402</t>
@@ -2019,78 +1795,54 @@
     <t>10k</t>
   </si>
   <si>
-    <t>R12</t>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>120R</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>180R</t>
+  </si>
+  <si>
+    <t>R2,R3,R12,R13</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>R6</t>
   </si>
   <si>
     <t>1k2</t>
   </si>
   <si>
-    <t>R13</t>
+    <t>R7</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>R14</t>
+    <t>R8</t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R15</t>
+    <t>R9</t>
   </si>
   <si>
     <t>56R</t>
   </si>
   <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>120R</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>180R</t>
-  </si>
-  <si>
-    <t>R18,R19</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>680R</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>R5,R8,R9,R11</t>
-  </si>
-  <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>41k2</t>
-  </si>
-  <si>
-    <t>R7,R10</t>
-  </si>
-  <si>
-    <t>620k</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -2106,16 +1858,25 @@
     <t>U2</t>
   </si>
   <si>
+    <t>TPS22810DRV</t>
+  </si>
+  <si>
+    <t>lakotamm-miscellaneous:WSON-6_2x2mm_Pitch0.65mm</t>
+  </si>
+  <si>
+    <t>TPS22810</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
     <t>TPS70925DBV</t>
   </si>
   <si>
-    <t>lakotamm-miscellaneous:WSON-6_2x2mm_Pitch0.65mm</t>
-  </si>
-  <si>
     <t>TPS70925</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>U4</t>
   </si>
   <si>
     <t>STM32L011F4U6TR</t>
@@ -2127,15 +1888,6 @@
     <t>STM32L011F4Ux</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>TPS61236PRWL</t>
-  </si>
-  <si>
-    <t>TPS61236P</t>
-  </si>
-  <si>
     <t>Proj:</t>
   </si>
   <si>
@@ -2151,7 +1903,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2018-03-26 00:52:06</t>
+    <t>2018-03-31 18:54:40</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -2184,10 +1936,7 @@
     <t>490-10449-1-ND</t>
   </si>
   <si>
-    <t>490-6186-1-ND</t>
-  </si>
-  <si>
-    <t>445-5986-1-ND</t>
+    <t>490-6043-1-ND</t>
   </si>
   <si>
     <t>490-4763-1-ND</t>
@@ -2199,21 +1948,12 @@
     <t>311-1785-1-ND</t>
   </si>
   <si>
-    <t>445-8029-1-ND</t>
-  </si>
-  <si>
-    <t>490-6043-1-ND</t>
-  </si>
-  <si>
     <t>1516-1081-1-ND</t>
   </si>
   <si>
     <t>296-35502-1-ND</t>
   </si>
   <si>
-    <t>541-1319-1-ND</t>
-  </si>
-  <si>
     <t>296-47751-1-ND</t>
   </si>
   <si>
@@ -2223,25 +1963,22 @@
     <t>296-47767-1-ND</t>
   </si>
   <si>
+    <t>296-46947-1-ND</t>
+  </si>
+  <si>
     <t>296-40923-1-ND</t>
   </si>
   <si>
     <t>497-17478-1-ND</t>
   </si>
   <si>
-    <t>296-44629-1-ND</t>
-  </si>
-  <si>
     <t>Farnell</t>
   </si>
   <si>
     <t>2419061</t>
   </si>
   <si>
-    <t>2611888</t>
-  </si>
-  <si>
-    <t>2525128</t>
+    <t>2494187</t>
   </si>
   <si>
     <t>2688473</t>
@@ -2250,15 +1987,9 @@
     <t>2211173</t>
   </si>
   <si>
-    <t>2494187</t>
-  </si>
-  <si>
     <t>2542822</t>
   </si>
   <si>
-    <t>1845532</t>
-  </si>
-  <si>
     <t>2677134</t>
   </si>
   <si>
@@ -2268,6 +1999,9 @@
     <t>2773565</t>
   </si>
   <si>
+    <t>2769481</t>
+  </si>
+  <si>
     <t>2314372</t>
   </si>
   <si>
@@ -2283,10 +2017,7 @@
     <t>73W9970</t>
   </si>
   <si>
-    <t>96Y9237</t>
-  </si>
-  <si>
-    <t>95Y0047</t>
+    <t>55Y9820</t>
   </si>
   <si>
     <t>06AC6004</t>
@@ -2298,15 +2029,9 @@
     <t>NonStk</t>
   </si>
   <si>
-    <t>55Y9820</t>
-  </si>
-  <si>
     <t>33AC4935</t>
   </si>
   <si>
-    <t>70R1509</t>
-  </si>
-  <si>
     <t>03AC9569</t>
   </si>
   <si>
@@ -2316,13 +2041,13 @@
     <t>27AC3952</t>
   </si>
   <si>
+    <t>32AC8713</t>
+  </si>
+  <si>
     <t>87W8265</t>
   </si>
   <si>
     <t>52AC7539</t>
-  </si>
-  <si>
-    <t>98Y9818</t>
   </si>
   <si>
     <t>Rs Components</t>
@@ -2871,7 +2596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
@@ -2925,13 +2650,13 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I1" s="4">
         <v>100</v>
@@ -2939,88 +2664,88 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I2" s="5">
-        <f>sum(I7:I44)</f>
+        <f>sum(I7:I36)</f>
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <f>sum(M7:M44)</f>
+        <f>sum(M7:M36)</f>
         <v>0</v>
       </c>
       <c r="R2" s="5">
-        <f>sum(R7:R44)</f>
+        <f>sum(R7:R36)</f>
         <v>0</v>
       </c>
       <c r="W2" s="5">
-        <f>sum(W7:W44)</f>
+        <f>sum(W7:W36)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="5">
-        <f>sum(AB7:AB44)</f>
+        <f>sum(AB7:AB36)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="5">
-        <f>sum(AG7:AG44)</f>
+        <f>sum(AG7:AG36)</f>
         <v>0</v>
       </c>
       <c r="AL2" s="5">
-        <f>sum(AL7:AL44)</f>
+        <f>sum(AL7:AL36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="I3" s="6">
         <f>TotalCost/BoardQty</f>
         <v>0</v>
       </c>
       <c r="M3" s="7">
-        <f>(ROWS(M7:M44)-COUNTBLANK(M7:M44))&amp;" of "&amp;ROWS(M7:M44)&amp;" parts found"</f>
+        <f>(ROWS(M7:M36)-COUNTBLANK(M7:M36))&amp;" of "&amp;ROWS(M7:M36)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="R3" s="7">
-        <f>(ROWS(R7:R44)-COUNTBLANK(R7:R44))&amp;" of "&amp;ROWS(R7:R44)&amp;" parts found"</f>
+        <f>(ROWS(R7:R36)-COUNTBLANK(R7:R36))&amp;" of "&amp;ROWS(R7:R36)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="W3" s="7">
-        <f>(ROWS(W7:W44)-COUNTBLANK(W7:W44))&amp;" of "&amp;ROWS(W7:W44)&amp;" parts found"</f>
+        <f>(ROWS(W7:W36)-COUNTBLANK(W7:W36))&amp;" of "&amp;ROWS(W7:W36)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AB3" s="7">
-        <f>(ROWS(AB7:AB44)-COUNTBLANK(AB7:AB44))&amp;" of "&amp;ROWS(AB7:AB44)&amp;" parts found"</f>
+        <f>(ROWS(AB7:AB36)-COUNTBLANK(AB7:AB36))&amp;" of "&amp;ROWS(AB7:AB36)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AG3" s="7">
-        <f>(ROWS(AG7:AG44)-COUNTBLANK(AG7:AG44))&amp;" of "&amp;ROWS(AG7:AG44)&amp;" parts found"</f>
+        <f>(ROWS(AG7:AG36)-COUNTBLANK(AG7:AG36))&amp;" of "&amp;ROWS(AG7:AG36)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AL3" s="7">
-        <f>(ROWS(AL7:AL44)-COUNTBLANK(AL7:AL44))&amp;" of "&amp;ROWS(AL7:AL44)&amp;" parts found"</f>
+        <f>(ROWS(AL7:AL36)-COUNTBLANK(AL7:AL36))&amp;" of "&amp;ROWS(AL7:AL36)&amp;" parts found"</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -3036,42 +2761,42 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="10" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="11" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="12" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="13" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="14" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="14"/>
@@ -3107,10 +2832,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>3</v>
@@ -3119,13 +2844,13 @@
         <v>2</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="15" t="s">
         <v>3</v>
@@ -3134,13 +2859,13 @@
         <v>2</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>3</v>
@@ -3149,13 +2874,13 @@
         <v>2</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>3</v>
@@ -3164,13 +2889,13 @@
         <v>2</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="AF6" s="15" t="s">
         <v>3</v>
@@ -3179,13 +2904,13 @@
         <v>2</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AJ6" s="15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="AK6" s="15" t="s">
         <v>3</v>
@@ -3194,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="AM6" s="15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3220,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3916</v>
+        <v>3905</v>
       </c>
       <c r="L7" s="16">
         <f>iferror(lookup(if(K7="",G7,K7),{0,1,10,100,500,1000,2500},{0.0,3.39,3.108,2.034,1.808,1.695,1.6385}),"")</f>
@@ -3231,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="O7">
-        <v>776</v>
+        <v>738</v>
       </c>
       <c r="Q7" s="16">
-        <f>iferror(lookup(if(P7="",G7,P7),{0,1,5,10,20,40,100,500},{0.0,4.898352,3.789056,3.30296,3.066144,2.567584,2.081488,1.919456}),"")</f>
+        <f>iferror(lookup(if(P7="",G7,P7),{0,1,5,10,20,40,100,500},{0.0,4.748784,3.61456,3.091072,3.066144,2.567584,2.019168,1.794816}),"")</f>
         <v>0</v>
       </c>
       <c r="R7" s="16">
@@ -3245,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="Y7">
         <v>270</v>
@@ -3259,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="17" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3285,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4197</v>
+        <v>4189</v>
       </c>
       <c r="L8" s="16">
         <f>iferror(lookup(if(K8="",G8,K8),{0,1,10,25,50,100,250,500,1000,3000},{0.0,3.28,2.95,2.6224,2.2946,2.2127,2.13072,2.04876,2.00778,1.8625}),"")</f>
@@ -3296,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3325,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>949</v>
+        <v>349</v>
       </c>
       <c r="L9" s="16">
-        <f>iferror(lookup(if(K9="",G9,K9),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.11,0.081,0.038,0.02664,0.02205,0.02052,0.01878,0.01594,0.01518,0.01442}),"")</f>
+        <f>iferror(lookup(if(K9="",G9,K9),{0,1,10,100,500,1000,2500,5000,10000},{0.0,0.13,0.092,0.0432,0.03028,0.02506,0.02332,0.02134,0.01811}),"")</f>
         <v>0</v>
       </c>
       <c r="M9" s="16">
@@ -3336,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -3353,7 +3078,7 @@
         <v>21</v>
       </c>
       <c r="G10">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H10" s="16">
@@ -3365,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>587247</v>
+        <v>2875</v>
       </c>
       <c r="L10" s="16">
-        <f>iferror(lookup(if(K10="",G10,K10),{0,1,10,100,500,1000,2500,5000,10000},{0.0,0.1,0.052,0.0233,0.01666,0.01309,0.0119,0.01095,0.00869}),"")</f>
+        <f>iferror(lookup(if(K10="",G10,K10),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.1,0.045,0.0198,0.01416,0.01113,0.01012,0.00931,0.00739,0.00704,0.00669}),"")</f>
         <v>0</v>
       </c>
       <c r="M10" s="16">
@@ -3376,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="O10">
-        <v>30246</v>
+        <v>24116</v>
       </c>
       <c r="Q10" s="16">
-        <f>iferror(lookup(if(P10="",G10,P10),{0,1,100,500,2500,5000,10000,50000},{0.0,0.03190784,0.03190784,0.01707568,0.01171616,0.01084368,0.00772768,0.00535952}),"")</f>
+        <f>iferror(lookup(if(P10="",G10,P10),{0,1,100,500,2500,5000,10000,50000},{0.0,0.03116,0.03116,0.01832208,0.01159152,0.00972192,0.0074784,0.0068552}),"")</f>
         <v>0</v>
       </c>
       <c r="R10" s="16">
@@ -3390,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="Y10">
-        <v>3316</v>
+        <v>22816</v>
       </c>
       <c r="AA10" s="16">
-        <f>iferror(lookup(if(Z10="",G10,Z10),{0,1,10,25,50,100,250,500,1000},{0.0,0.05,0.05,0.041,0.032,0.023,0.02,0.016,0.013}),"")</f>
+        <f>iferror(lookup(if(Z10="",G10,Z10),{0,1,10,25,50,100,250,500,1000},{0.0,0.038,0.038,0.031,0.024,0.017,0.015,0.012,0.01}),"")</f>
         <v>0</v>
       </c>
       <c r="AB10" s="16">
@@ -3404,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="17" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -3412,16 +3137,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H11" s="16">
@@ -3433,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>35539</v>
+        <v>853394</v>
       </c>
       <c r="L11" s="16">
-        <f>iferror(lookup(if(K11="",G11,K11),{0,1,10,100,500,1000,2000},{0.0,0.9,0.688,0.492,0.38088,0.32798,0.276}),"")</f>
+        <f>iferror(lookup(if(K11="",G11,K11),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.1,0.042,0.0186,0.01328,0.01044,0.00949,0.00873,0.00693,0.0066,0.00627}),"")</f>
         <v>0</v>
       </c>
       <c r="M11" s="16">
@@ -3444,13 +3169,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O11">
-        <v>13103</v>
+        <v>1061</v>
       </c>
       <c r="Q11" s="16">
-        <f>iferror(lookup(if(P11="",G11,P11),{0,1,2000,10000},{0.0,0.2829328,0.2829328,0.2767008}),"")</f>
+        <f>iferror(lookup(if(P11="",G11,P11),{0,1,100,500,2500,5000,10000,50000},{0.0,0.0348992,0.0348992,0.0205656,0.01296256,0.01096832,0.00835088,0.00660592}),"")</f>
         <v>0</v>
       </c>
       <c r="R11" s="16">
@@ -3458,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="Y11">
-        <v>8676</v>
+        <v>164</v>
       </c>
       <c r="AA11" s="16">
-        <f>iferror(lookup(if(Z11="",G11,Z11),{0,1,5,10,25,50,100,250,500,1000},{0.0,1.26,1.26,1.05,0.885,0.721,0.556,0.528,0.5,0.456}),"")</f>
+        <f>iferror(lookup(if(Z11="",G11,Z11),{0,1,10,25,50,100,250,500,1000},{0.0,0.085,0.085,0.069,0.053,0.037,0.032,0.027,0.021}),"")</f>
         <v>0</v>
       </c>
       <c r="AB11" s="16">
@@ -3472,18 +3197,24 @@
         <v>0</v>
       </c>
       <c r="AC11" s="17" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
       <c r="G12">
-        <f>BoardQty*2</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H12" s="16">
@@ -3493,6 +3224,20 @@
       <c r="I12" s="16">
         <f>iferror(G12*H12,"")</f>
         <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11171</v>
+      </c>
+      <c r="L12" s="16">
+        <f>iferror(lookup(if(K12="",G12,K12),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.11,0.08,0.0374,0.02624,0.02172,0.02022,0.01849,0.01571,0.01496,0.01421}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <f>iferror(if(K12="",G12,K12)*L12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3500,10 +3245,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
@@ -3521,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>881294</v>
+        <v>474088</v>
       </c>
       <c r="L13" s="16">
-        <f>iferror(lookup(if(K13="",G13,K13),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.1,0.042,0.0186,0.01328,0.01044,0.00949,0.00873,0.00693,0.0066,0.00627}),"")</f>
+        <f>iferror(lookup(if(K13="",G13,K13),{0,1,10,100,500,1000,4000},{0.0,0.29,0.202,0.1143,0.08066,0.07057,0.05845}),"")</f>
         <v>0</v>
       </c>
       <c r="M13" s="16">
@@ -3532,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O13">
-        <v>3761</v>
+        <v>68488</v>
       </c>
       <c r="Q13" s="16">
-        <f>iferror(lookup(if(P13="",G13,P13),{0,1,100,500,2500,5000,10000,50000},{0.0,0.0348992,0.0348992,0.0205656,0.01296256,0.01096832,0.00835088,0.00660592}),"")</f>
+        <f>iferror(lookup(if(P13="",G13,P13),{0,1,100,500,1000,2000},{0.0,0.1819744,0.1819744,0.11454416,0.09672064,0.0847552}),"")</f>
         <v>0</v>
       </c>
       <c r="R13" s="16">
@@ -3546,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y13">
-        <v>3664</v>
+        <v>123</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="AA13" s="16">
-        <f>iferror(lookup(if(Z13="",G13,Z13),{0,1,10,25,50,100,250,500,1000},{0.0,0.085,0.085,0.069,0.053,0.037,0.032,0.027,0.021}),"")</f>
+        <f>iferror(lookup(if(Z13="",G13,Z13),{0,1,4000,8000,12000},{0.0,0.045,0.045,0.04,0.035}),"")</f>
         <v>0</v>
       </c>
       <c r="AB13" s="16">
@@ -3560,24 +3305,18 @@
         <v>0</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
       <c r="G14">
-        <f>BoardQty*3</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H14" s="16">
@@ -3587,20 +3326,6 @@
       <c r="I14" s="16">
         <f>iferror(G14*H14,"")</f>
         <v>0</v>
-      </c>
-      <c r="J14">
-        <v>40145</v>
-      </c>
-      <c r="L14" s="16">
-        <f>iferror(lookup(if(K14="",G14,K14),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.11,0.08,0.0374,0.02624,0.02172,0.02022,0.01849,0.01571,0.01496,0.01421}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <f>iferror(if(K14="",G14,K14)*L14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -3617,7 +3342,7 @@
         <v>36</v>
       </c>
       <c r="G15">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H15" s="16">
@@ -3629,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>474334</v>
+        <v>4744</v>
       </c>
       <c r="L15" s="16">
-        <f>iferror(lookup(if(K15="",G15,K15),{0,1,10,100,500,1000,4000},{0.0,0.27,0.186,0.1055,0.07444,0.06514,0.05395}),"")</f>
+        <f>iferror(lookup(if(K15="",G15,K15),{0,1,10,25,100,250,500,1000,4000,8000,12000,28000,100000},{0.0,0.54,0.386,0.296,0.1931,0.14156,0.12012,0.09867,0.078,0.0702,0.0624,0.0585,0.0507}),"")</f>
         <v>0</v>
       </c>
       <c r="M15" s="16">
@@ -3640,35 +3365,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="O15">
-        <v>76814</v>
-      </c>
-      <c r="Q15" s="16">
-        <f>iferror(lookup(if(P15="",G15,P15),{0,1,100,500,1000,2000},{0.0,0.1819744,0.1819744,0.11454416,0.09672064,0.0847552}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
-        <f>iferror(if(P15="",G15,P15)*Q15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y15" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA15" s="16">
-        <f>iferror(lookup(if(Z15="",G15,Z15),{0,1,4000,8000,12000},{0.0,0.045,0.045,0.04,0.035}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
-        <f>iferror(if(Z15="",G15,Z15)*AA15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -3676,10 +3373,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
@@ -3697,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17000</v>
+        <v>3600</v>
       </c>
       <c r="L16" s="16">
-        <f>iferror(lookup(if(K16="",G16,K16),{0,1,10,100,500,1000,4000},{0.0,0.38,0.265,0.1587,0.11902,0.10051,0.0782}),"")</f>
+        <f>iferror(lookup(if(K16="",G16,K16),{0,1,10,25,100,250,500,750,1000,1250,3000},{0.0,4.76,4.25,3.8248,3.4849,2.99516,2.68754,2.42851,2.06976,2.2666,1.87264}),"")</f>
         <v>0</v>
       </c>
       <c r="M16" s="16">
@@ -3708,24 +3405,46 @@
         <v>0</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>133</v>
+        <v>112</v>
+      </c>
+      <c r="O16">
+        <v>4812</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>iferror(lookup(if(P16="",G16,P16),{0,1,10,25,50,100,250,500,1000},{0.0,4.536896,3.627024,3.464992,3.215712,2.966432,2.816864,2.530192,1.981776}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <f>iferror(if(P16="",G16,P16)*Q16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA16" s="16">
+        <f>iferror(lookup(if(Z16="",G16,Z16),{0,1,10,25,50,100,250,500,1000},{0.0,3.73,3.36,3.16,2.95,2.75,2.58,2.34,1.98}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <f>iferror(if(Z16="",G16,Z16)*AA16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
       <c r="G17">
-        <f>BoardQty*3</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H17" s="16">
@@ -3735,48 +3454,6 @@
       <c r="I17" s="16">
         <f>iferror(G17*H17,"")</f>
         <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1472337</v>
-      </c>
-      <c r="L17" s="16">
-        <f>iferror(lookup(if(K17="",G17,K17),{0,1,10,100,500,1000,2500,5000,10000,20000,30000},{0.0,0.1,0.045,0.0198,0.01416,0.01113,0.01012,0.00931,0.00739,0.00704,0.00669}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="16">
-        <f>iferror(if(K17="",G17,K17)*L17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17">
-        <v>23116</v>
-      </c>
-      <c r="Q17" s="16">
-        <f>iferror(lookup(if(P17="",G17,P17),{0,1,100,500,2500,5000,10000,50000},{0.0,0.03116,0.03116,0.01832208,0.01159152,0.00972192,0.0074784,0.0068552}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="16">
-        <f>iferror(if(P17="",G17,P17)*Q17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y17">
-        <v>22816</v>
-      </c>
-      <c r="AA17" s="16">
-        <f>iferror(lookup(if(Z17="",G17,Z17),{0,1,10,25,50,100,250,500,1000},{0.0,0.038,0.038,0.031,0.024,0.017,0.015,0.012,0.01}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <f>iferror(if(Z17="",G17,Z17)*AA17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -3784,12 +3461,6 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18">
@@ -3803,34 +3474,14 @@
       <c r="I18" s="16">
         <f>iferror(G18*H18,"")</f>
         <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4754</v>
-      </c>
-      <c r="L18" s="16">
-        <f>iferror(lookup(if(K18="",G18,K18),{0,1,10,25,100,250,500,1000,4000,8000,12000,28000,100000},{0.0,0.54,0.386,0.296,0.1931,0.14156,0.12012,0.09867,0.078,0.0702,0.0624,0.0585,0.0507}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="16">
-        <f>iferror(if(K18="",G18,K18)*L18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <f>BoardQty*1</f>
@@ -3843,56 +3494,14 @@
       <c r="I19" s="16">
         <f>iferror(G19*H19,"")</f>
         <v>0</v>
-      </c>
-      <c r="J19">
-        <v>3612</v>
-      </c>
-      <c r="L19" s="16">
-        <f>iferror(lookup(if(K19="",G19,K19),{0,1,10,25,100,250,500,750,1000,1250,3000},{0.0,4.76,4.25,3.8248,3.4849,2.99516,2.68754,2.42851,2.06976,2.2666,1.87264}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="16">
-        <f>iferror(if(K19="",G19,K19)*L19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="O19">
-        <v>4872</v>
-      </c>
-      <c r="Q19" s="16">
-        <f>iferror(lookup(if(P19="",G19,P19),{0,1,10,25,50,100,250,500,1000},{0.0,4.536896,3.627024,3.464992,3.215712,2.966432,2.816864,2.530192,1.981776}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="16">
-        <f>iferror(if(P19="",G19,P19)*Q19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y19">
-        <v>4872</v>
-      </c>
-      <c r="AA19" s="16">
-        <f>iferror(lookup(if(Z19="",G19,Z19),{0,1,10,25,50,100,250,500,1000},{0.0,3.73,3.36,3.16,2.95,2.75,2.58,2.34,1.98}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="16">
-        <f>iferror(if(Z19="",G19,Z19)*AA19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <f>BoardQty*1</f>
@@ -3909,10 +3518,10 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G21">
         <f>BoardQty*1</f>
@@ -3929,10 +3538,13 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
       </c>
       <c r="G22">
         <f>BoardQty*1</f>
@@ -3945,14 +3557,59 @@
       <c r="I22" s="16">
         <f>iferror(G22*H22,"")</f>
         <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3000</v>
+      </c>
+      <c r="L22" s="16">
+        <f>iferror(lookup(if(K22="",G22,K22),{0,1,10,100,250,500,750,1000,1250,3000,6000,15000},{0.0,0.47,0.399,0.2991,0.28888,0.21934,0.21109,0.1695,0.18887,0.15972,0.15004,0.14036}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <f>iferror(if(K22="",G22,K22)*L22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22">
+        <v>1354</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>iferror(lookup(if(P22="",G22,P22),{0,1,5,25,100,250,500,1000,5000},{0.0,0.5409376,0.5409376,0.5097776,0.3577168,0.3016288,0.2206128,0.2156272,0.211888}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <f>iferror(if(P22="",G22,P22)*Q22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y22">
+        <v>1354</v>
+      </c>
+      <c r="AA22" s="16">
+        <f>iferror(lookup(if(Z22="",G22,Z22),{0,1,5,10,25,50,100},{0.0,0.44,0.44,0.365,0.317,0.27,0.222}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16">
+        <f>iferror(if(Z22="",G22,Z22)*AA22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
       </c>
       <c r="G23">
         <f>BoardQty*1</f>
@@ -3965,17 +3622,62 @@
       <c r="I23" s="16">
         <f>iferror(G23*H23,"")</f>
         <v>0</v>
+      </c>
+      <c r="J23">
+        <v>8965</v>
+      </c>
+      <c r="L23" s="16">
+        <f>iferror(lookup(if(K23="",G23,K23),{0,1,10,100,250,500,750,1000,1250,3000,6000,15000},{0.0,0.51,0.357,0.2343,0.16544,0.13442,0.11375,0.10424,0.1034,0.088,0.0792,0.0704}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
+        <f>iferror(if(K23="",G23,K23)*L23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23">
+        <v>3253</v>
+      </c>
+      <c r="Q23" s="16">
+        <f>iferror(lookup(if(P23="",G23,P23),{0,1,100,250,500,1000,5000},{0.0,0.2131344,0.2131344,0.211888,0.2081488,0.2031632,0.199424}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <f>iferror(if(P23="",G23,P23)*Q23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y23">
+        <v>2753</v>
+      </c>
+      <c r="AA23" s="16">
+        <f>iferror(lookup(if(Z23="",G23,Z23),{0,1,5,10,25,50,100},{0.0,0.38,0.38,0.266,0.219,0.173,0.126}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
+        <f>iferror(if(Z23="",G23,Z23)*AA23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
       </c>
       <c r="G24">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H24" s="16">
@@ -3989,13 +3691,13 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
       </c>
       <c r="G25">
         <f>BoardQty*1</f>
@@ -4008,59 +3710,17 @@
       <c r="I25" s="16">
         <f>iferror(G25*H25,"")</f>
         <v>0</v>
-      </c>
-      <c r="J25">
-        <v>200529</v>
-      </c>
-      <c r="L25" s="16">
-        <f>iferror(lookup(if(K25="",G25,K25),{0,1,10,100,500,1000,3000,6000,15000},{0.0,1.45,1.346,0.9729,0.7452,0.6624,0.558,0.54,0.522}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="16">
-        <f>iferror(if(K25="",G25,K25)*L25,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O25">
-        <v>7619</v>
-      </c>
-      <c r="Q25" s="16">
-        <f>iferror(lookup(if(P25="",G25,P25),{0,1,5,50,250,500,1500,3000,15000},{0.0,1.582928,1.582928,1.0045984,0.9111184,0.6842736,0.6643312,0.6443888,0.6232}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="16">
-        <f>iferror(if(P25="",G25,P25)*Q25,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y25">
-        <v>1914</v>
-      </c>
-      <c r="AA25" s="16">
-        <f>iferror(lookup(if(Z25="",G25,Z25),{0,1,25,50,100,250,500,1000},{0.0,1.44,1.08,1.01,0.936,0.882,0.828,0.756}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="16">
-        <f>iferror(if(Z25="",G25,Z25)*AA25,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
       </c>
       <c r="G26">
         <f>BoardQty*1</f>
@@ -4073,62 +3733,20 @@
       <c r="I26" s="16">
         <f>iferror(G26*H26,"")</f>
         <v>0</v>
-      </c>
-      <c r="J26">
-        <v>3000</v>
-      </c>
-      <c r="L26" s="16">
-        <f>iferror(lookup(if(K26="",G26,K26),{0,1,10,100,250,500,750,1000,1250,3000,6000,15000},{0.0,0.47,0.399,0.2991,0.28888,0.21934,0.21109,0.1695,0.18887,0.15972,0.15004,0.14036}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <f>iferror(if(K26="",G26,K26)*L26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="O26">
-        <v>1354</v>
-      </c>
-      <c r="Q26" s="16">
-        <f>iferror(lookup(if(P26="",G26,P26),{0,1,5,25,100,250,500,1000,5000},{0.0,0.5409376,0.5409376,0.5097776,0.3577168,0.3016288,0.2206128,0.2156272,0.211888}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="16">
-        <f>iferror(if(P26="",G26,P26)*Q26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y26">
-        <v>1354</v>
-      </c>
-      <c r="AA26" s="16">
-        <f>iferror(lookup(if(Z26="",G26,Z26),{0,1,5,10,25,50,100},{0.0,0.44,0.44,0.365,0.317,0.27,0.222}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="16">
-        <f>iferror(if(Z26="",G26,Z26)*AA26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
       </c>
       <c r="G27">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H27" s="16">
@@ -4138,62 +3756,20 @@
       <c r="I27" s="16">
         <f>iferror(G27*H27,"")</f>
         <v>0</v>
-      </c>
-      <c r="J27">
-        <v>8965</v>
-      </c>
-      <c r="L27" s="16">
-        <f>iferror(lookup(if(K27="",G27,K27),{0,1,10,100,250,500,750,1000,1250,3000,6000,15000},{0.0,0.51,0.357,0.2343,0.16544,0.13442,0.11375,0.10424,0.1034,0.088,0.0792,0.0704}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="16">
-        <f>iferror(if(K27="",G27,K27)*L27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="O27">
-        <v>3253</v>
-      </c>
-      <c r="Q27" s="16">
-        <f>iferror(lookup(if(P27="",G27,P27),{0,1,100,250,500,1000,5000},{0.0,0.2131344,0.2131344,0.211888,0.2081488,0.2031632,0.199424}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
-        <f>iferror(if(P27="",G27,P27)*Q27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y27">
-        <v>2753</v>
-      </c>
-      <c r="AA27" s="16">
-        <f>iferror(lookup(if(Z27="",G27,Z27),{0,1,5,10,25,50,100},{0.0,0.38,0.38,0.266,0.219,0.173,0.126}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16">
-        <f>iferror(if(Z27="",G27,Z27)*AA27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G28">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H28" s="16">
@@ -4207,13 +3783,13 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G29">
         <f>BoardQty*1</f>
@@ -4230,13 +3806,13 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G30">
         <f>BoardQty*1</f>
@@ -4253,13 +3829,13 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G31">
         <f>BoardQty*1</f>
@@ -4276,13 +3852,13 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G32">
         <f>BoardQty*1</f>
@@ -4299,13 +3875,16 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
       </c>
       <c r="G33">
         <f>BoardQty*1</f>
@@ -4318,17 +3897,62 @@
       <c r="I33" s="16">
         <f>iferror(G33*H33,"")</f>
         <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2961</v>
+      </c>
+      <c r="L33" s="16">
+        <f>iferror(lookup(if(K33="",G33,K33),{0,1,10,100,500,1000,1500,3000,6000,15000},{0.0,0.61,0.537,0.4117,0.32548,0.26038,0.2912,0.2291,0.2133,0.2054}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <f>iferror(if(K33="",G33,K33)*L33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O33">
+        <v>1350</v>
+      </c>
+      <c r="Q33" s="16">
+        <f>iferror(lookup(if(P33="",G33,P33),{0,1,50,100,250,500,1000,2500,5000},{0.0,0.3041216,0.2978896,0.2916576,0.2854256,0.2791936,0.274208,0.267976,0.261744}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="16">
+        <f>iferror(if(P33="",G33,P33)*Q33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y33">
+        <v>1340</v>
+      </c>
+      <c r="AA33" s="16">
+        <f>iferror(lookup(if(Z33="",G33,Z33),{0,1,10,25,50,100},{0.0,0.68,0.565,0.498,0.431,0.364}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16">
+        <f>iferror(if(Z33="",G33,Z33)*AA33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:38">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
       </c>
       <c r="G34">
         <f>BoardQty*1</f>
@@ -4341,20 +3965,65 @@
       <c r="I34" s="16">
         <f>iferror(G34*H34,"")</f>
         <v>0</v>
+      </c>
+      <c r="J34">
+        <v>12307</v>
+      </c>
+      <c r="L34" s="16">
+        <f>iferror(lookup(if(K34="",G34,K34),{0,1,10,100,250,500,1000,1250,3000,6000,15000},{0.0,0.72,0.636,0.4873,0.43944,0.3399,0.27192,0.2992,0.23925,0.22275,0.2145}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <f>iferror(if(K34="",G34,K34)*L34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34">
+        <v>2184</v>
+      </c>
+      <c r="Q34" s="16">
+        <f>iferror(lookup(if(P34="",G34,P34),{0,1,50,100,250,500,1000,2500,5000},{0.0,0.704216,0.6144752,0.3963552,0.3938624,0.3901232,0.386384,0.3838912,0.380152}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <f>iferror(if(P34="",G34,P34)*Q34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y34" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA34" s="16">
+        <f>iferror(lookup(if(Z34="",G34,Z34),{0,1,1500,5000},{0.0,0.444,0.444,0.402}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16">
+        <f>iferror(if(Z34="",G34,Z34)*AA34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:38">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
       </c>
       <c r="G35">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H35" s="16">
@@ -4364,6 +4033,48 @@
       <c r="I35" s="16">
         <f>iferror(G35*H35,"")</f>
         <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4351</v>
+      </c>
+      <c r="L35" s="16">
+        <f>iferror(lookup(if(K35="",G35,K35),{0,1,10,100,250,500,1000,1250,3000},{0.0,1.17,1.042,0.8126,0.84924,0.67126,0.52994,0.5925,0.42875}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <f>iferror(if(K35="",G35,K35)*L35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35">
+        <v>208</v>
+      </c>
+      <c r="Q35" s="16">
+        <f>iferror(lookup(if(P35="",G35,P35),{0,1,25,50,100,250,500,1000,2500},{0.0,1.43336,1.2189792,1.0980784,0.9759312,0.9210896,0.8138992,0.7029696,0.5907936}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <f>iferror(if(P35="",G35,P35)*Q35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y35">
+        <v>208</v>
+      </c>
+      <c r="AA35" s="16">
+        <f>iferror(lookup(if(Z35="",G35,Z35),{0,1,10,100},{0.0,1.3,1.11,0.85}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16">
+        <f>iferror(if(Z35="",G35,Z35)*AA35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -4371,10 +4082,13 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
         <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
       </c>
       <c r="G36">
         <f>BoardQty*1</f>
@@ -4388,3189 +4102,2292 @@
         <f>iferror(G36*H36,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:38">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
-        <f>iferror(G37*H37,"")</f>
-        <v>0</v>
+      <c r="J36">
+        <v>3728</v>
+      </c>
+      <c r="L36" s="16">
+        <f>iferror(lookup(if(K36="",G36,K36),{0,1,10,100,500,1000,3000,6000},{0.0,1.83,1.646,1.3229,1.0869,0.90058,0.81405,0.7839}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <f>iferror(if(K36="",G36,K36)*L36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36">
+        <v>198</v>
+      </c>
+      <c r="Q36" s="16">
+        <f>iferror(lookup(if(P36="",G36,P36),{0,1,10,25,50,100,250},{0.0,1.43336,1.358576,1.2414144,1.1990368,1.0856144,1.0432368}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
+        <f>iferror(if(P36="",G36,P36)*Q36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y36">
+        <v>198</v>
+      </c>
+      <c r="AA36" s="16">
+        <f>iferror(lookup(if(Z36="",G36,Z36),{0,1,10,25,50,100,250,500,1000},{0.0,2.11,1.86,1.68,1.5,1.31,1.12,1.02,0.966}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16">
+        <f>iferror(if(Z36="",G36,Z36)*AA36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38">
-        <f>BoardQty*4</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
-        <f>iferror(G38*H38,"")</f>
+      <c r="K38" s="7">
+        <f>IFERROR(IF(OR(K7:K36),COUNTIF(K7:K36,"&gt;0")&amp;" of "&amp;ROWS(K7:K36)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <f>IFERROR(IF(OR(P7:P36),COUNTIF(P7:P36,"&gt;0")&amp;" of "&amp;ROWS(P7:P36)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <f>IFERROR(IF(OR(U7:U36),COUNTIF(U7:U36,"&gt;0")&amp;" of "&amp;ROWS(U7:U36)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7">
+        <f>IFERROR(IF(OR(Z7:Z36),COUNTIF(Z7:Z36,"&gt;0")&amp;" of "&amp;ROWS(Z7:Z36)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="7">
+        <f>IFERROR(IF(OR(AE7:AE36),COUNTIF(AE7:AE36,"&gt;0")&amp;" of "&amp;ROWS(AE7:AE36)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="7">
+        <f>IFERROR(IF(OR(AJ7:AJ36),COUNTIF(AJ7:AJ36,"&gt;0")&amp;" of "&amp;ROWS(AJ7:AJ36)&amp;" parts purchased",""),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:38">
-      <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="16">
-        <f>iferror(G39*H39,"")</f>
+      <c r="K39">
+        <f t="array" ref="K39">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="array" ref="L39">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="array" ref="M39">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="array" ref="P39">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="array" ref="Q39">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="array" ref="R39">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="array" ref="U39">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="array" ref="V39">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="array" ref="W39">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="array" ref="Z39">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="array" ref="AA39">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="array" ref="AB39">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="array" ref="AE39">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <f t="array" ref="AF39">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <f t="array" ref="AG39">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <f t="array" ref="AJ39">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <f t="array" ref="AK39">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <f t="array" ref="AL39">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:38">
-      <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40">
-        <f>BoardQty*2</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="16">
-        <f>iferror(G40*H40,"")</f>
+      <c r="K40">
+        <f t="array" ref="K40">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="array" ref="L40">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="array" ref="M40">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="array" ref="P40">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="array" ref="Q40">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="array" ref="R40">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="array" ref="U40">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="array" ref="V40">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="array" ref="W40">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="array" ref="Z40">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="array" ref="AA40">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="array" ref="AB40">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <f t="array" ref="AF40">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <f t="array" ref="AG40">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <f t="array" ref="AJ40">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <f t="array" ref="AK40">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <f t="array" ref="AL40">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:38">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
-        <f>iferror(G41*H41,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>2961</v>
-      </c>
-      <c r="L41" s="16">
-        <f>iferror(lookup(if(K41="",G41,K41),{0,1,10,100,500,1000,1500,3000,6000,15000},{0.0,0.61,0.537,0.4117,0.32548,0.26038,0.2912,0.2291,0.2133,0.2054}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="16">
-        <f>iferror(if(K41="",G41,K41)*L41,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="O41">
-        <v>1350</v>
-      </c>
-      <c r="Q41" s="16">
-        <f>iferror(lookup(if(P41="",G41,P41),{0,1,50,100,250,500,1000,2500,5000},{0.0,0.3041216,0.2978896,0.2916576,0.2854256,0.2791936,0.274208,0.267976,0.261744}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="16">
-        <f>iferror(if(P41="",G41,P41)*Q41,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y41">
-        <v>1340</v>
-      </c>
-      <c r="AA41" s="16">
-        <f>iferror(lookup(if(Z41="",G41,Z41),{0,1,10,25,50,100},{0.0,0.68,0.565,0.498,0.431,0.364}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="16">
-        <f>iferror(if(Z41="",G41,Z41)*AA41,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="17" t="s">
-        <v>171</v>
+      <c r="K41">
+        <f t="array" ref="K41">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="array" ref="L41">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="array" ref="M41">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="array" ref="P41">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="array" ref="Q41">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="array" ref="R41">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="array" ref="U41">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="array" ref="V41">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="array" ref="W41">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="array" ref="Z41">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="array" ref="AA41">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="array" ref="AB41">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <f t="array" ref="AF41">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <f t="array" ref="AG41">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <f t="array" ref="AJ41">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <f t="array" ref="AK41">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <f t="array" ref="AL41">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:38">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
-        <f>iferror(G42*H42,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>4366</v>
-      </c>
-      <c r="L42" s="16">
-        <f>iferror(lookup(if(K42="",G42,K42),{0,1,10,100,250,500,1000,1250,3000},{0.0,1.17,1.042,0.8126,0.84924,0.67126,0.52994,0.5925,0.42875}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="16">
-        <f>iferror(if(K42="",G42,K42)*L42,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="O42">
-        <v>208</v>
-      </c>
-      <c r="Q42" s="16">
-        <f>iferror(lookup(if(P42="",G42,P42),{0,1,25,50,100,250,500,1000,2500},{0.0,1.43336,1.2189792,1.0980784,0.9759312,0.9210896,0.8138992,0.7029696,0.5907936}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="16">
-        <f>iferror(if(P42="",G42,P42)*Q42,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y42">
-        <v>208</v>
-      </c>
-      <c r="AA42" s="16">
-        <f>iferror(lookup(if(Z42="",G42,Z42),{0,1,10,100},{0.0,1.3,1.11,0.85}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="16">
-        <f>iferror(if(Z42="",G42,Z42)*AA42,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="17" t="s">
-        <v>172</v>
+      <c r="K42">
+        <f t="array" ref="K42">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="array" ref="L42">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="array" ref="M42">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="array" ref="P42">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="array" ref="Q42">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="array" ref="R42">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="array" ref="U42">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="array" ref="V42">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="array" ref="W42">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="array" ref="Z42">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="array" ref="AA42">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="array" ref="AB42">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <f t="array" ref="AF42">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <f t="array" ref="AG42">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <f t="array" ref="AJ42">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <f t="array" ref="AK42">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <f t="array" ref="AL42">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:38">
-      <c r="A43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="16">
-        <f>iferror(G43*H43,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>3728</v>
-      </c>
-      <c r="L43" s="16">
-        <f>iferror(lookup(if(K43="",G43,K43),{0,1,10,100,500,1000,3000,6000},{0.0,1.83,1.646,1.3229,1.0869,0.90058,0.81405,0.7839}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="16">
-        <f>iferror(if(K43="",G43,K43)*L43,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="O43">
-        <v>198</v>
-      </c>
-      <c r="Q43" s="16">
-        <f>iferror(lookup(if(P43="",G43,P43),{0,1,10,25,50,100,250},{0.0,1.520608,1.43336,1.321184,1.271328,1.146688,1.109296}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="16">
-        <f>iferror(if(P43="",G43,P43)*Q43,"")</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y43">
-        <v>198</v>
-      </c>
-      <c r="AA43" s="16">
-        <f>iferror(lookup(if(Z43="",G43,Z43),{0,1,10,25,50,100,250,500,1000},{0.0,2.11,1.86,1.68,1.5,1.31,1.12,1.02,0.966}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="16">
-        <f>iferror(if(Z43="",G43,Z43)*AA43,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="17" t="s">
-        <v>173</v>
+      <c r="K43">
+        <f t="array" ref="K43">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="array" ref="L43">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="array" ref="M43">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="array" ref="P43">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="array" ref="Q43">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="array" ref="R43">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="array" ref="U43">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="array" ref="V43">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="array" ref="W43">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="array" ref="Z43">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="array" ref="AA43">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="array" ref="AB43">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <f t="array" ref="AF43">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <f t="array" ref="AG43">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <f t="array" ref="AK43">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <f t="array" ref="AL43">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:38">
-      <c r="A44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="16">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f>iferror(G44*H44,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>5020</v>
-      </c>
-      <c r="L44" s="16">
-        <f>iferror(lookup(if(K44="",G44,K44),{0,1,10,100,250,500,1000,1250,3000,6000},{0.0,2.4,2.154,1.731,1.578,1.23652,1.02454,1.14405,0.9261,0.8918}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="16">
-        <f>iferror(if(K44="",G44,K44)*L44,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y44" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA44" s="16">
-        <f>iferror(lookup(if(Z44="",G44,Z44),{0,1,500,1000},{0.0,1.45,1.45,1.36}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="16">
-        <f>iferror(if(Z44="",G44,Z44)*AA44,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="17" t="s">
-        <v>174</v>
+      <c r="K44">
+        <f t="array" ref="K44">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="array" ref="L44">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="array" ref="M44">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="array" ref="P44">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="array" ref="Q44">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="array" ref="R44">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="array" ref="U44">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="array" ref="V44">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="array" ref="W44">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="array" ref="Z44">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="array" ref="AA44">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="array" ref="AB44">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <f t="array" ref="AF44">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <f t="array" ref="AG44">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <f t="array" ref="AK44">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <f t="array" ref="AL44">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38">
+      <c r="K45">
+        <f t="array" ref="K45">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="array" ref="L45">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="array" ref="M45">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="array" ref="P45">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="array" ref="Q45">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="array" ref="R45">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="array" ref="U45">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="array" ref="V45">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="array" ref="W45">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="array" ref="Z45">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="array" ref="AA45">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="array" ref="AB45">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <f t="array" ref="AF45">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <f t="array" ref="AG45">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <f t="array" ref="AK45">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <f t="array" ref="AL45">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:38">
-      <c r="K46" s="7">
-        <f>IFERROR(IF(OR(K7:K44),COUNTIF(K7:K44,"&gt;0")&amp;" of "&amp;ROWS(K7:K44)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="7">
-        <f>IFERROR(IF(OR(P7:P44),COUNTIF(P7:P44,"&gt;0")&amp;" of "&amp;ROWS(P7:P44)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="7">
-        <f>IFERROR(IF(OR(U7:U44),COUNTIF(U7:U44,"&gt;0")&amp;" of "&amp;ROWS(U7:U44)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="7">
-        <f>IFERROR(IF(OR(Z7:Z44),COUNTIF(Z7:Z44,"&gt;0")&amp;" of "&amp;ROWS(Z7:Z44)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="7">
-        <f>IFERROR(IF(OR(AE7:AE44),COUNTIF(AE7:AE44,"&gt;0")&amp;" of "&amp;ROWS(AE7:AE44)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="7">
-        <f>IFERROR(IF(OR(AJ7:AJ44),COUNTIF(AJ7:AJ44,"&gt;0")&amp;" of "&amp;ROWS(AJ7:AJ44)&amp;" parts purchased",""),"")</f>
+      <c r="K46">
+        <f t="array" ref="K46">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="array" ref="L46">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="array" ref="M46">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="array" ref="P46">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="array" ref="Q46">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="array" ref="R46">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="array" ref="U46">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="array" ref="V46">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="array" ref="W46">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="array" ref="Z46">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="array" ref="AA46">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="array" ref="AB46">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <f t="array" ref="AF46">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <f t="array" ref="AG46">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <f t="array" ref="AK46">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <f t="array" ref="AL46">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:38">
       <c r="K47">
-        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="array" ref="P47">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P47">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="array" ref="Q47">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q47">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="array" ref="R47">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R47">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="array" ref="U47">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U47">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V47">
-        <f t="array" ref="V47">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V47">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="array" ref="Z47">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z47">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="array" ref="AA47">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA47">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB47">
-        <f t="array" ref="AB47">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB47">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF47">
-        <f t="array" ref="AF47">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF47">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG47">
-        <f t="array" ref="AG47">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG47">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="array" ref="AJ47">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK47">
-        <f t="array" ref="AK47">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK47">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL47">
-        <f t="array" ref="AL47">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL47">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:38">
       <c r="K48">
-        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="array" ref="P48">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P48">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="array" ref="Q48">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q48">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="array" ref="R48">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R48">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="array" ref="U48">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U48">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V48">
-        <f t="array" ref="V48">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V48">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W48">
-        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f t="array" ref="Z48">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z48">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA48">
-        <f t="array" ref="AA48">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA48">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB48">
-        <f t="array" ref="AB48">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB48">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF48">
-        <f t="array" ref="AF48">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF48">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG48">
-        <f t="array" ref="AG48">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG48">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="array" ref="AJ48">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK48">
-        <f t="array" ref="AK48">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK48">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL48">
-        <f t="array" ref="AL48">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL48">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:38">
       <c r="K49">
-        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="array" ref="P49">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P49">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="array" ref="Q49">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q49">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="array" ref="R49">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R49">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U49">
-        <f t="array" ref="U49">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U49">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V49">
-        <f t="array" ref="V49">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V49">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f t="array" ref="Z49">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z49">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA49">
-        <f t="array" ref="AA49">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA49">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB49">
-        <f t="array" ref="AB49">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB49">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF49">
-        <f t="array" ref="AF49">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF49">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG49">
-        <f t="array" ref="AG49">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG49">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="array" ref="AJ49">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ49">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK49">
-        <f t="array" ref="AK49">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK49">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL49">
-        <f t="array" ref="AL49">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL49">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:38">
       <c r="K50">
-        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="array" ref="P50">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P50">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="array" ref="Q50">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q50">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="array" ref="R50">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R50">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U50">
-        <f t="array" ref="U50">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U50">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V50">
-        <f t="array" ref="V50">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V50">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W50">
-        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="array" ref="Z50">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z50">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="array" ref="AA50">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA50">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB50">
-        <f t="array" ref="AB50">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB50">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF50">
-        <f t="array" ref="AF50">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF50">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG50">
-        <f t="array" ref="AG50">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG50">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="array" ref="AJ50">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ50">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK50">
-        <f t="array" ref="AK50">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK50">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL50">
-        <f t="array" ref="AL50">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL50">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:38">
       <c r="K51">
-        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="array" ref="P51">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P51">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="array" ref="Q51">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q51">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="array" ref="R51">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R51">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U51">
-        <f t="array" ref="U51">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U51">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V51">
-        <f t="array" ref="V51">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V51">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W51">
-        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="array" ref="Z51">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z51">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA51">
-        <f t="array" ref="AA51">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA51">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB51">
-        <f t="array" ref="AB51">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB51">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF51">
-        <f t="array" ref="AF51">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF51">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG51">
-        <f t="array" ref="AG51">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG51">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="array" ref="AJ51">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ51">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK51">
-        <f t="array" ref="AK51">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK51">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL51">
-        <f t="array" ref="AL51">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL51">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:38">
       <c r="K52">
-        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="array" ref="P52">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P52">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="array" ref="Q52">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q52">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="array" ref="R52">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R52">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U52">
-        <f t="array" ref="U52">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U52">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V52">
-        <f t="array" ref="V52">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V52">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f t="array" ref="Z52">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z52">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA52">
-        <f t="array" ref="AA52">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA52">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB52">
-        <f t="array" ref="AB52">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB52">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF52">
-        <f t="array" ref="AF52">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF52">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG52">
-        <f t="array" ref="AG52">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG52">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ52">
-        <f t="array" ref="AJ52">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ52">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK52">
-        <f t="array" ref="AK52">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK52">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL52">
-        <f t="array" ref="AL52">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL52">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:38">
       <c r="K53">
-        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="array" ref="P53">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P53">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="array" ref="Q53">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q53">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="array" ref="R53">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R53">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U53">
-        <f t="array" ref="U53">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U53">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V53">
-        <f t="array" ref="V53">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V53">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="array" ref="Z53">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z53">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA53">
-        <f t="array" ref="AA53">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA53">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB53">
-        <f t="array" ref="AB53">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB53">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF53">
-        <f t="array" ref="AF53">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF53">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG53">
-        <f t="array" ref="AG53">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG53">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="array" ref="AJ53">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ53">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK53">
-        <f t="array" ref="AK53">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK53">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL53">
-        <f t="array" ref="AL53">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL53">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="11:38">
       <c r="K54">
-        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="array" ref="P54">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P54">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="array" ref="Q54">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q54">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="array" ref="R54">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R54">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="array" ref="U54">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U54">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="array" ref="V54">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V54">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="array" ref="Z54">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z54">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA54">
-        <f t="array" ref="AA54">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA54">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB54">
-        <f t="array" ref="AB54">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB54">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF54">
-        <f t="array" ref="AF54">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF54">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG54">
-        <f t="array" ref="AG54">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG54">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ54">
-        <f t="array" ref="AJ54">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ54">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK54">
-        <f t="array" ref="AK54">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK54">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL54">
-        <f t="array" ref="AL54">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL54">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:38">
       <c r="K55">
-        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="array" ref="P55">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P55">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="array" ref="Q55">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q55">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="array" ref="R55">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R55">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U55">
-        <f t="array" ref="U55">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U55">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="array" ref="V55">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V55">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="array" ref="Z55">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z55">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA55">
-        <f t="array" ref="AA55">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA55">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB55">
-        <f t="array" ref="AB55">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB55">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF55">
-        <f t="array" ref="AF55">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF55">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG55">
-        <f t="array" ref="AG55">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG55">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ55">
-        <f t="array" ref="AJ55">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ55">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK55">
-        <f t="array" ref="AK55">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK55">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL55">
-        <f t="array" ref="AL55">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL55">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="11:38">
       <c r="K56">
-        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="array" ref="P56">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P56">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="array" ref="Q56">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q56">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="array" ref="R56">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R56">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="array" ref="U56">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U56">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V56">
-        <f t="array" ref="V56">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V56">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="array" ref="Z56">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z56">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA56">
-        <f t="array" ref="AA56">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA56">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB56">
-        <f t="array" ref="AB56">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB56">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF56">
-        <f t="array" ref="AF56">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF56">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG56">
-        <f t="array" ref="AG56">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG56">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ56">
-        <f t="array" ref="AJ56">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ56">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK56">
-        <f t="array" ref="AK56">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK56">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL56">
-        <f t="array" ref="AL56">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL56">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="11:38">
       <c r="K57">
-        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="array" ref="P57">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P57">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="array" ref="Q57">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q57">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="array" ref="R57">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R57">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="array" ref="U57">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U57">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="array" ref="V57">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V57">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W57">
-        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f t="array" ref="Z57">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z57">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA57">
-        <f t="array" ref="AA57">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA57">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB57">
-        <f t="array" ref="AB57">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB57">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE57">
-        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF57">
-        <f t="array" ref="AF57">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF57">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG57">
-        <f t="array" ref="AG57">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG57">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ57">
-        <f t="array" ref="AJ57">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ57">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK57">
-        <f t="array" ref="AK57">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK57">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL57">
-        <f t="array" ref="AL57">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL57">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:38">
       <c r="K58">
-        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="array" ref="P58">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P58">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="array" ref="Q58">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q58">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="array" ref="R58">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R58">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U58">
-        <f t="array" ref="U58">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U58">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V58">
-        <f t="array" ref="V58">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V58">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z58">
-        <f t="array" ref="Z58">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z58">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA58">
-        <f t="array" ref="AA58">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA58">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB58">
-        <f t="array" ref="AB58">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB58">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE58">
-        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF58">
-        <f t="array" ref="AF58">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF58">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG58">
-        <f t="array" ref="AG58">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG58">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ58">
-        <f t="array" ref="AJ58">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ58">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK58">
-        <f t="array" ref="AK58">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK58">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL58">
-        <f t="array" ref="AL58">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL58">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="11:38">
       <c r="K59">
-        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="array" ref="P59">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P59">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="array" ref="Q59">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q59">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="array" ref="R59">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R59">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U59">
-        <f t="array" ref="U59">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U59">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V59">
-        <f t="array" ref="V59">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V59">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z59">
-        <f t="array" ref="Z59">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z59">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="array" ref="AA59">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA59">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB59">
-        <f t="array" ref="AB59">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB59">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE59">
-        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF59">
-        <f t="array" ref="AF59">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF59">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG59">
-        <f t="array" ref="AG59">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG59">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="array" ref="AJ59">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ59">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK59">
-        <f t="array" ref="AK59">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK59">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL59">
-        <f t="array" ref="AL59">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL59">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:38">
       <c r="K60">
-        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="array" ref="P60">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P60">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="array" ref="Q60">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q60">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="array" ref="R60">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R60">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U60">
-        <f t="array" ref="U60">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U60">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V60">
-        <f t="array" ref="V60">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V60">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W60">
-        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z60">
-        <f t="array" ref="Z60">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z60">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA60">
-        <f t="array" ref="AA60">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA60">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB60">
-        <f t="array" ref="AB60">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB60">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF60">
-        <f t="array" ref="AF60">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF60">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG60">
-        <f t="array" ref="AG60">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG60">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="array" ref="AJ60">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ60">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f t="array" ref="AK60">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK60">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL60">
-        <f t="array" ref="AL60">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL60">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="11:38">
       <c r="K61">
-        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="array" ref="P61">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P61">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="array" ref="Q61">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q61">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="array" ref="R61">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R61">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U61">
-        <f t="array" ref="U61">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U61">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V61">
-        <f t="array" ref="V61">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V61">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W61">
-        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z61">
-        <f t="array" ref="Z61">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z61">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA61">
-        <f t="array" ref="AA61">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA61">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB61">
-        <f t="array" ref="AB61">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB61">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE61">
-        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF61">
-        <f t="array" ref="AF61">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF61">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG61">
-        <f t="array" ref="AG61">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG61">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ61">
-        <f t="array" ref="AJ61">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ61">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK61">
-        <f t="array" ref="AK61">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK61">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL61">
-        <f t="array" ref="AL61">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL61">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="11:38">
       <c r="K62">
-        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="array" ref="P62">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P62">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="array" ref="Q62">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q62">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="array" ref="R62">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R62">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U62">
-        <f t="array" ref="U62">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U62">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V62">
-        <f t="array" ref="V62">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V62">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="array" ref="Z62">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z62">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA62">
-        <f t="array" ref="AA62">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA62">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB62">
-        <f t="array" ref="AB62">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB62">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE62">
-        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF62">
-        <f t="array" ref="AF62">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF62">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG62">
-        <f t="array" ref="AG62">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG62">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="array" ref="AJ62">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ62">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK62">
-        <f t="array" ref="AK62">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK62">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL62">
-        <f t="array" ref="AL62">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL62">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="11:38">
       <c r="K63">
-        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="array" ref="P63">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P63">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="array" ref="Q63">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q63">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="array" ref="R63">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R63">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U63">
-        <f t="array" ref="U63">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U63">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V63">
-        <f t="array" ref="V63">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V63">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="array" ref="Z63">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z63">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA63">
-        <f t="array" ref="AA63">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA63">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB63">
-        <f t="array" ref="AB63">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB63">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF63">
-        <f t="array" ref="AF63">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF63">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG63">
-        <f t="array" ref="AG63">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG63">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ63">
-        <f t="array" ref="AJ63">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ63">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK63">
-        <f t="array" ref="AK63">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK63">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL63">
-        <f t="array" ref="AL63">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL63">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="11:38">
       <c r="K64">
-        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="array" ref="P64">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P64">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="array" ref="Q64">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q64">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="array" ref="R64">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R64">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U64">
-        <f t="array" ref="U64">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U64">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="array" ref="V64">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V64">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W64">
-        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z64">
-        <f t="array" ref="Z64">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z64">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA64">
-        <f t="array" ref="AA64">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA64">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB64">
-        <f t="array" ref="AB64">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB64">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE64">
-        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF64">
-        <f t="array" ref="AF64">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF64">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG64">
-        <f t="array" ref="AG64">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG64">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ64">
-        <f t="array" ref="AJ64">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ64">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK64">
-        <f t="array" ref="AK64">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK64">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL64">
-        <f t="array" ref="AL64">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL64">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="11:38">
       <c r="K65">
-        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="array" ref="P65">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P65">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="array" ref="Q65">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q65">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="array" ref="R65">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R65">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U65">
-        <f t="array" ref="U65">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U65">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V65">
-        <f t="array" ref="V65">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V65">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W65">
-        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z65">
-        <f t="array" ref="Z65">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z65">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA65">
-        <f t="array" ref="AA65">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA65">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB65">
-        <f t="array" ref="AB65">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB65">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE65">
-        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF65">
-        <f t="array" ref="AF65">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF65">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG65">
-        <f t="array" ref="AG65">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG65">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ65">
-        <f t="array" ref="AJ65">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ65">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK65">
-        <f t="array" ref="AK65">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK65">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL65">
-        <f t="array" ref="AL65">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL65">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="11:38">
       <c r="K66">
-        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="array" ref="P66">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P66">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="array" ref="Q66">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q66">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="array" ref="R66">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R66">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U66">
-        <f t="array" ref="U66">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U66">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V66">
-        <f t="array" ref="V66">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V66">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W66">
-        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z66">
-        <f t="array" ref="Z66">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z66">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA66">
-        <f t="array" ref="AA66">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA66">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB66">
-        <f t="array" ref="AB66">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB66">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE66">
-        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF66">
-        <f t="array" ref="AF66">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF66">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG66">
-        <f t="array" ref="AG66">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG66">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ66">
-        <f t="array" ref="AJ66">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ66">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK66">
-        <f t="array" ref="AK66">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK66">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL66">
-        <f t="array" ref="AL66">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL66">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="11:38">
       <c r="K67">
-        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="array" ref="P67">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P67">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="array" ref="Q67">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q67">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="array" ref="R67">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R67">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U67">
-        <f t="array" ref="U67">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U67">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V67">
-        <f t="array" ref="V67">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V67">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W67">
-        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z67">
-        <f t="array" ref="Z67">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z67">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA67">
-        <f t="array" ref="AA67">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA67">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB67">
-        <f t="array" ref="AB67">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB67">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE67">
-        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF67">
-        <f t="array" ref="AF67">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF67">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG67">
-        <f t="array" ref="AG67">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG67">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ67">
-        <f t="array" ref="AJ67">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ67">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK67">
-        <f t="array" ref="AK67">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK67">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL67">
-        <f t="array" ref="AL67">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL67">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="11:38">
       <c r="K68">
-        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($N$7:$N$36&lt;&gt;"",IF($K$7:$K$36&lt;&gt;"",ROW($K$7:$K$36)-MIN(ROW($K$7:$K$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="array" ref="P68">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="P68">IFERROR(CONCATENATE((INDEX($S$7:$S$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="array" ref="Q68">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q68">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="array" ref="R68">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="R68">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($S$7:$S$36&lt;&gt;"",IF($P$7:$P$36&lt;&gt;"",ROW($P$7:$P$36)-MIN(ROW($P$7:$P$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U68">
-        <f t="array" ref="U68">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="U68">IFERROR(CONCATENATE((INDEX($X$7:$X$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V68">
-        <f t="array" ref="V68">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V68">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W68">
-        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($X$7:$X$36&lt;&gt;"",IF($U$7:$U$36&lt;&gt;"",ROW($U$7:$U$36)-MIN(ROW($U$7:$U$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Z68">
-        <f t="array" ref="Z68">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
+        <f t="array" ref="Z68">IFERROR(CONCATENATE((INDEX($AC$7:$AC$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA68">
-        <f t="array" ref="AA68">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AA68">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AB68">
-        <f t="array" ref="AB68">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AB68">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AC$7:$AC$36&lt;&gt;"",IF($Z$7:$Z$36&lt;&gt;"",ROW($Z$7:$Z$36)-MIN(ROW($Z$7:$Z$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AE68">
-        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($AH$7:$AH$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF68">
-        <f t="array" ref="AF68">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AF68">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AG68">
-        <f t="array" ref="AG68">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AG68">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AH$7:$AH$36&lt;&gt;"",IF($AE$7:$AE$36&lt;&gt;"",ROW($AE$7:$AE$36)-MIN(ROW($AE$7:$AE$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AJ68">
-        <f t="array" ref="AJ68">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
+        <f t="array" ref="AJ68">IFERROR(CONCATENATE((INDEX($AM$7:$AM$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK68">
-        <f t="array" ref="AK68">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AK68">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AL68">
-        <f t="array" ref="AL68">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="11:38">
-      <c r="K69">
-        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <f t="array" ref="P69">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <f t="array" ref="Q69">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <f t="array" ref="R69">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <f t="array" ref="U69">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <f t="array" ref="V69">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <f t="array" ref="Z69">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <f t="array" ref="AA69">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <f t="array" ref="AB69">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <f t="array" ref="AF69">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <f t="array" ref="AG69">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ69">
-        <f t="array" ref="AJ69">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK69">
-        <f t="array" ref="AK69">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL69">
-        <f t="array" ref="AL69">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="11:38">
-      <c r="K70">
-        <f t="array" ref="K70">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f t="array" ref="L70">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <f t="array" ref="M70">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <f t="array" ref="P70">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <f t="array" ref="Q70">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <f t="array" ref="R70">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <f t="array" ref="U70">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <f t="array" ref="V70">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <f t="array" ref="W70">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <f t="array" ref="Z70">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <f t="array" ref="AA70">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <f t="array" ref="AB70">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <f t="array" ref="AE70">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <f t="array" ref="AF70">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <f t="array" ref="AG70">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ70">
-        <f t="array" ref="AJ70">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK70">
-        <f t="array" ref="AK70">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL70">
-        <f t="array" ref="AL70">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="11:38">
-      <c r="K71">
-        <f t="array" ref="K71">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f t="array" ref="L71">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <f t="array" ref="M71">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <f t="array" ref="P71">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <f t="array" ref="Q71">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <f t="array" ref="R71">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <f t="array" ref="U71">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <f t="array" ref="V71">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <f t="array" ref="W71">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <f t="array" ref="Z71">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <f t="array" ref="AA71">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <f t="array" ref="AB71">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <f t="array" ref="AE71">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <f t="array" ref="AF71">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <f t="array" ref="AG71">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ71">
-        <f t="array" ref="AJ71">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK71">
-        <f t="array" ref="AK71">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL71">
-        <f t="array" ref="AL71">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="11:38">
-      <c r="K72">
-        <f t="array" ref="K72">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f t="array" ref="L72">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <f t="array" ref="M72">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <f t="array" ref="P72">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <f t="array" ref="Q72">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <f t="array" ref="R72">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <f t="array" ref="U72">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <f t="array" ref="V72">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <f t="array" ref="W72">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <f t="array" ref="Z72">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <f t="array" ref="AA72">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <f t="array" ref="AB72">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <f t="array" ref="AE72">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <f t="array" ref="AF72">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <f t="array" ref="AG72">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ72">
-        <f t="array" ref="AJ72">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK72">
-        <f t="array" ref="AK72">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <f t="array" ref="AL72">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="11:38">
-      <c r="K73">
-        <f t="array" ref="K73">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f t="array" ref="L73">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <f t="array" ref="M73">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <f t="array" ref="P73">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <f t="array" ref="Q73">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <f t="array" ref="R73">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <f t="array" ref="U73">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <f t="array" ref="V73">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <f t="array" ref="W73">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <f t="array" ref="Z73">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <f t="array" ref="AA73">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <f t="array" ref="AB73">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <f t="array" ref="AE73">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <f t="array" ref="AF73">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <f t="array" ref="AG73">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ73">
-        <f t="array" ref="AJ73">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK73">
-        <f t="array" ref="AK73">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL73">
-        <f t="array" ref="AL73">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="11:38">
-      <c r="K74">
-        <f t="array" ref="K74">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f t="array" ref="L74">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <f t="array" ref="M74">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <f t="array" ref="P74">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <f t="array" ref="Q74">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <f t="array" ref="R74">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <f t="array" ref="U74">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <f t="array" ref="V74">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <f t="array" ref="W74">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <f t="array" ref="Z74">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <f t="array" ref="AA74">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <f t="array" ref="AB74">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <f t="array" ref="AE74">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <f t="array" ref="AF74">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG74">
-        <f t="array" ref="AG74">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ74">
-        <f t="array" ref="AJ74">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK74">
-        <f t="array" ref="AK74">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL74">
-        <f t="array" ref="AL74">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="11:38">
-      <c r="K75">
-        <f t="array" ref="K75">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <f t="array" ref="L75">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <f t="array" ref="M75">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <f t="array" ref="P75">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <f t="array" ref="Q75">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <f t="array" ref="R75">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <f t="array" ref="U75">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <f t="array" ref="V75">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <f t="array" ref="W75">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <f t="array" ref="Z75">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <f t="array" ref="AA75">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <f t="array" ref="AB75">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <f t="array" ref="AE75">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <f t="array" ref="AF75">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <f t="array" ref="AG75">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ75">
-        <f t="array" ref="AJ75">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK75">
-        <f t="array" ref="AK75">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL75">
-        <f t="array" ref="AL75">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="11:38">
-      <c r="K76">
-        <f t="array" ref="K76">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <f t="array" ref="L76">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <f t="array" ref="M76">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <f t="array" ref="P76">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <f t="array" ref="Q76">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <f t="array" ref="R76">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <f t="array" ref="U76">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <f t="array" ref="V76">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <f t="array" ref="W76">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <f t="array" ref="Z76">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <f t="array" ref="AA76">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <f t="array" ref="AB76">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <f t="array" ref="AE76">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <f t="array" ref="AF76">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <f t="array" ref="AG76">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ76">
-        <f t="array" ref="AJ76">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK76">
-        <f t="array" ref="AK76">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL76">
-        <f t="array" ref="AL76">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="11:38">
-      <c r="K77">
-        <f t="array" ref="K77">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f t="array" ref="L77">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <f t="array" ref="M77">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <f t="array" ref="P77">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <f t="array" ref="Q77">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <f t="array" ref="R77">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <f t="array" ref="U77">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <f t="array" ref="V77">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <f t="array" ref="W77">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <f t="array" ref="Z77">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <f t="array" ref="AA77">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <f t="array" ref="AB77">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <f t="array" ref="AE77">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF77">
-        <f t="array" ref="AF77">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG77">
-        <f t="array" ref="AG77">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ77">
-        <f t="array" ref="AJ77">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK77">
-        <f t="array" ref="AK77">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL77">
-        <f t="array" ref="AL77">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="11:38">
-      <c r="K78">
-        <f t="array" ref="K78">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <f t="array" ref="L78">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <f t="array" ref="M78">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <f t="array" ref="P78">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <f t="array" ref="Q78">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <f t="array" ref="R78">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <f t="array" ref="U78">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <f t="array" ref="V78">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <f t="array" ref="W78">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <f t="array" ref="Z78">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <f t="array" ref="AA78">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <f t="array" ref="AB78">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <f t="array" ref="AE78">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <f t="array" ref="AF78">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG78">
-        <f t="array" ref="AG78">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ78">
-        <f t="array" ref="AJ78">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK78">
-        <f t="array" ref="AK78">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL78">
-        <f t="array" ref="AL78">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="11:38">
-      <c r="K79">
-        <f t="array" ref="K79">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="array" ref="L79">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <f t="array" ref="M79">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <f t="array" ref="P79">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <f t="array" ref="Q79">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <f t="array" ref="R79">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f t="array" ref="U79">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <f t="array" ref="V79">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <f t="array" ref="W79">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <f t="array" ref="Z79">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <f t="array" ref="AA79">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <f t="array" ref="AB79">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <f t="array" ref="AE79">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <f t="array" ref="AF79">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <f t="array" ref="AG79">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ79">
-        <f t="array" ref="AJ79">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK79">
-        <f t="array" ref="AK79">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL79">
-        <f t="array" ref="AL79">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="11:38">
-      <c r="K80">
-        <f t="array" ref="K80">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="array" ref="L80">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <f t="array" ref="M80">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <f t="array" ref="P80">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <f t="array" ref="Q80">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <f t="array" ref="R80">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <f t="array" ref="U80">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <f t="array" ref="V80">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <f t="array" ref="W80">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <f t="array" ref="Z80">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <f t="array" ref="AA80">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <f t="array" ref="AB80">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE80">
-        <f t="array" ref="AE80">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF80">
-        <f t="array" ref="AF80">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG80">
-        <f t="array" ref="AG80">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ80">
-        <f t="array" ref="AJ80">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK80">
-        <f t="array" ref="AK80">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL80">
-        <f t="array" ref="AL80">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="11:38">
-      <c r="K81">
-        <f t="array" ref="K81">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <f t="array" ref="L81">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <f t="array" ref="M81">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <f t="array" ref="P81">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <f t="array" ref="Q81">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <f t="array" ref="R81">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <f t="array" ref="U81">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <f t="array" ref="V81">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <f t="array" ref="W81">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <f t="array" ref="Z81">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <f t="array" ref="AA81">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <f t="array" ref="AB81">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <f t="array" ref="AE81">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF81">
-        <f t="array" ref="AF81">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <f t="array" ref="AG81">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ81">
-        <f t="array" ref="AJ81">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK81">
-        <f t="array" ref="AK81">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <f t="array" ref="AL81">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="11:38">
-      <c r="K82">
-        <f t="array" ref="K82">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <f t="array" ref="L82">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <f t="array" ref="M82">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <f t="array" ref="P82">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <f t="array" ref="Q82">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <f t="array" ref="R82">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <f t="array" ref="U82">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <f t="array" ref="V82">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <f t="array" ref="W82">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <f t="array" ref="Z82">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <f t="array" ref="AA82">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <f t="array" ref="AB82">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE82">
-        <f t="array" ref="AE82">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF82">
-        <f t="array" ref="AF82">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG82">
-        <f t="array" ref="AG82">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ82">
-        <f t="array" ref="AJ82">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK82">
-        <f t="array" ref="AK82">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL82">
-        <f t="array" ref="AL82">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="11:38">
-      <c r="K83">
-        <f t="array" ref="K83">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <f t="array" ref="L83">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <f t="array" ref="M83">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <f t="array" ref="P83">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <f t="array" ref="Q83">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <f t="array" ref="R83">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <f t="array" ref="U83">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <f t="array" ref="V83">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <f t="array" ref="W83">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <f t="array" ref="Z83">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <f t="array" ref="AA83">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <f t="array" ref="AB83">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <f t="array" ref="AE83">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF83">
-        <f t="array" ref="AF83">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <f t="array" ref="AG83">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ83">
-        <f t="array" ref="AJ83">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK83">
-        <f t="array" ref="AK83">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL83">
-        <f t="array" ref="AL83">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="11:38">
-      <c r="K84">
-        <f t="array" ref="K84">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <f t="array" ref="L84">IFERROR(CONCATENATE((INDEX($N$7:$N$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <f t="array" ref="M84">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($N$7:$N$44&lt;&gt;"",IF($K$7:$K$44&lt;&gt;"",ROW($K$7:$K$44)-MIN(ROW($K$7:$K$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <f t="array" ref="P84">IFERROR(CONCATENATE((INDEX($S$7:$S$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <f t="array" ref="Q84">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <f t="array" ref="R84">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($S$7:$S$44&lt;&gt;"",IF($P$7:$P$44&lt;&gt;"",ROW($P$7:$P$44)-MIN(ROW($P$7:$P$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <f t="array" ref="U84">IFERROR(CONCATENATE((INDEX($X$7:$X$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <f t="array" ref="V84">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <f t="array" ref="W84">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($X$7:$X$44&lt;&gt;"",IF($U$7:$U$44&lt;&gt;"",ROW($U$7:$U$44)-MIN(ROW($U$7:$U$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <f t="array" ref="Z84">IFERROR(CONCATENATE((INDEX($AC$7:$AC$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <f t="array" ref="AA84">IFERROR(CONCATENATE(TEXT(INDEX($Z$7:$Z$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <f t="array" ref="AB84">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AC$7:$AC$44&lt;&gt;"",IF($Z$7:$Z$44&lt;&gt;"",ROW($Z$7:$Z$44)-MIN(ROW($Z$7:$Z$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE84">
-        <f t="array" ref="AE84">IFERROR(CONCATENATE((INDEX($AH$7:$AH$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF84">
-        <f t="array" ref="AF84">IFERROR(CONCATENATE(TEXT(INDEX($AE$7:$AE$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AG84">
-        <f t="array" ref="AG84">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AH$7:$AH$44&lt;&gt;"",IF($AE$7:$AE$44&lt;&gt;"",ROW($AE$7:$AE$44)-MIN(ROW($AE$7:$AE$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ84">
-        <f t="array" ref="AJ84">IFERROR(CONCATENATE((INDEX($AM$7:$AM$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK84">
-        <f t="array" ref="AK84">IFERROR(CONCATENATE(TEXT(INDEX($AJ$7:$AJ$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL84">
-        <f t="array" ref="AL84">IFERROR(CONCATENATE((INDEX($A$7:$A$44,SMALL(IF($AM$7:$AM$44&lt;&gt;"",IF($AJ$7:$AJ$44&lt;&gt;"",ROW($AJ$7:$AJ$44)-MIN(ROW($AJ$7:$AJ$44))+1,""),""),ROW()-ROW(A$47)+1))),),"")</f>
+        <f t="array" ref="AL68">IFERROR(CONCATENATE((INDEX($A$7:$A$36,SMALL(IF($AM$7:$AM$36&lt;&gt;"",IF($AJ$7:$AJ$36&lt;&gt;"",ROW($AJ$7:$AJ$36)-MIN(ROW($AJ$7:$AJ$36))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -7585,142 +6402,112 @@
     <mergeCell ref="AI5:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="cellIs" dxfId="3" priority="283" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="229" operator="lessThanOrEqual">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="cellIs" dxfId="3" priority="288" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="234" operator="lessThanOrEqual">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="3" priority="293" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="239" operator="lessThanOrEqual">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA15">
-    <cfRule type="cellIs" dxfId="3" priority="298" operator="lessThanOrEqual">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="3" priority="303" operator="lessThanOrEqual">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="3" priority="308" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA25">
-    <cfRule type="cellIs" dxfId="3" priority="313" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA26">
-    <cfRule type="cellIs" dxfId="3" priority="318" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA27">
-    <cfRule type="cellIs" dxfId="3" priority="323" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA41">
-    <cfRule type="cellIs" dxfId="3" priority="328" operator="lessThanOrEqual">
-      <formula>H41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA42">
-    <cfRule type="cellIs" dxfId="3" priority="333" operator="lessThanOrEqual">
-      <formula>H42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA43">
-    <cfRule type="cellIs" dxfId="3" priority="338" operator="lessThanOrEqual">
-      <formula>H43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA44">
-    <cfRule type="cellIs" dxfId="3" priority="343" operator="lessThanOrEqual">
-      <formula>H44</formula>
+  <conditionalFormatting sqref="AA16">
+    <cfRule type="cellIs" dxfId="3" priority="244" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA22">
+    <cfRule type="cellIs" dxfId="3" priority="249" operator="lessThanOrEqual">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA23">
+    <cfRule type="cellIs" dxfId="3" priority="254" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA33">
+    <cfRule type="cellIs" dxfId="3" priority="259" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA34">
+    <cfRule type="cellIs" dxfId="3" priority="264" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA35">
+    <cfRule type="cellIs" dxfId="3" priority="269" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA36">
+    <cfRule type="cellIs" dxfId="3" priority="274" operator="lessThanOrEqual">
+      <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="3" priority="278" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="224" operator="lessThanOrEqual">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="3" priority="284" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="230" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="cellIs" dxfId="3" priority="289" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="235" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="cellIs" dxfId="3" priority="294" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="240" operator="lessThanOrEqual">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB15">
-    <cfRule type="cellIs" dxfId="3" priority="299" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB17">
-    <cfRule type="cellIs" dxfId="3" priority="304" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB19">
-    <cfRule type="cellIs" dxfId="3" priority="309" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="3" priority="314" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB26">
-    <cfRule type="cellIs" dxfId="3" priority="319" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB27">
-    <cfRule type="cellIs" dxfId="3" priority="324" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB41">
-    <cfRule type="cellIs" dxfId="3" priority="329" operator="lessThanOrEqual">
-      <formula>I41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB42">
-    <cfRule type="cellIs" dxfId="3" priority="334" operator="lessThanOrEqual">
-      <formula>I42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB43">
-    <cfRule type="cellIs" dxfId="3" priority="339" operator="lessThanOrEqual">
-      <formula>I43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
-    <cfRule type="cellIs" dxfId="3" priority="344" operator="lessThanOrEqual">
-      <formula>I44</formula>
+  <conditionalFormatting sqref="AB16">
+    <cfRule type="cellIs" dxfId="3" priority="245" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB22">
+    <cfRule type="cellIs" dxfId="3" priority="250" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB23">
+    <cfRule type="cellIs" dxfId="3" priority="255" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="cellIs" dxfId="3" priority="260" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB34">
+    <cfRule type="cellIs" dxfId="3" priority="265" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB35">
+    <cfRule type="cellIs" dxfId="3" priority="270" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB36">
+    <cfRule type="cellIs" dxfId="3" priority="275" operator="lessThanOrEqual">
+      <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7">
-    <cfRule type="cellIs" dxfId="3" priority="279" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="225" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8021,94 +6808,6 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="0" priority="91">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="93" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="0" priority="94">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="95" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="96" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="0" priority="97">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="98" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="99" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="0" priority="100">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="101" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="102" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="0" priority="103">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="104" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="105" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="0" priority="106">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="107" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="108" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="0" priority="109">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="111" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="0" priority="112">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="113" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="114" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
@@ -8143,920 +6842,743 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="0" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="131" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="107" operator="lessThan">
       <formula>G10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="0" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="112" operator="lessThan">
       <formula>G11</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="117" operator="lessThan">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="0" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="122" operator="lessThan">
       <formula>G13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="0" priority="145" operator="equal">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="0" priority="126" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="146" operator="lessThan">
-      <formula>G14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="0" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="127" operator="lessThan">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="0" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="151" operator="lessThan">
-      <formula>G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="0" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="132" operator="lessThan">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="cellIs" dxfId="0" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="137" operator="lessThan">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="0" priority="141" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="142" operator="lessThan">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="0" priority="146" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="147" operator="lessThan">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="cellIs" dxfId="0" priority="151" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="152" operator="lessThan">
+      <formula>G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="cellIs" dxfId="0" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="157" operator="lessThan">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="0" priority="161" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="162" operator="lessThan">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="lessThan">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="97" operator="lessThan">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="102" operator="lessThan">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="0" priority="108" operator="greaterThan">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="greaterThan">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="greaterThan">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="0" priority="123" operator="greaterThan">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="0" priority="128" operator="greaterThan">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="0" priority="133" operator="greaterThan">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="cellIs" dxfId="0" priority="138" operator="greaterThan">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="0" priority="143" operator="greaterThan">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="cellIs" dxfId="0" priority="148" operator="greaterThan">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="cellIs" dxfId="0" priority="153" operator="greaterThan">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="cellIs" dxfId="0" priority="158" operator="greaterThan">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="cellIs" dxfId="0" priority="163" operator="greaterThan">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="greaterThan">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="greaterThan">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="greaterThan">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="3" priority="109" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="3" priority="114" operator="lessThanOrEqual">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="3" priority="119" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="3" priority="124" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="3" priority="129" operator="lessThanOrEqual">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="cellIs" dxfId="3" priority="134" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="3" priority="139" operator="lessThanOrEqual">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="3" priority="144" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="3" priority="149" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="cellIs" dxfId="3" priority="154" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="cellIs" dxfId="3" priority="159" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36">
+    <cfRule type="cellIs" dxfId="3" priority="164" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="3" priority="94" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="3" priority="99" operator="lessThanOrEqual">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="3" priority="104" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="cellIs" dxfId="3" priority="110" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="3" priority="115" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="3" priority="120" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="3" priority="125" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="3" priority="130" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="cellIs" dxfId="3" priority="135" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="3" priority="140" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="cellIs" dxfId="3" priority="145" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="cellIs" dxfId="3" priority="150" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="cellIs" dxfId="3" priority="155" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
+    <cfRule type="cellIs" dxfId="3" priority="160" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="cellIs" dxfId="3" priority="165" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="cellIs" dxfId="3" priority="95" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="3" priority="100" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="3" priority="105" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" dxfId="0" priority="171" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="172" operator="lessThan">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="cellIs" dxfId="0" priority="176" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="177" operator="lessThan">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="0" priority="181" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="182" operator="lessThan">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="187" operator="lessThan">
       <formula>G16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="0" priority="160" operator="equal">
+  <conditionalFormatting sqref="O22">
+    <cfRule type="cellIs" dxfId="0" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="161" operator="lessThan">
-      <formula>G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="0" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="192" operator="lessThan">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="166" operator="lessThan">
-      <formula>G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="0" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="197" operator="lessThan">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33">
+    <cfRule type="cellIs" dxfId="0" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="171" operator="lessThan">
-      <formula>G19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="0" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="202" operator="lessThan">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34">
+    <cfRule type="cellIs" dxfId="0" priority="206" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="176" operator="lessThan">
-      <formula>G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="0" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="207" operator="lessThan">
+      <formula>G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35">
+    <cfRule type="cellIs" dxfId="0" priority="211" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="181" operator="lessThan">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="0" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="212" operator="lessThan">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36">
+    <cfRule type="cellIs" dxfId="0" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="186" operator="lessThan">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="0" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="217" operator="lessThan">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="191" operator="lessThan">
-      <formula>G41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="0" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="167" operator="lessThan">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="cellIs" dxfId="0" priority="173" operator="greaterThan">
+      <formula>O10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="cellIs" dxfId="0" priority="178" operator="greaterThan">
+      <formula>O11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13">
+    <cfRule type="cellIs" dxfId="0" priority="183" operator="greaterThan">
+      <formula>O13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="0" priority="188" operator="greaterThan">
+      <formula>O16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="cellIs" dxfId="0" priority="193" operator="greaterThan">
+      <formula>O22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="cellIs" dxfId="0" priority="198" operator="greaterThan">
+      <formula>O23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="cellIs" dxfId="0" priority="203" operator="greaterThan">
+      <formula>O33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34">
+    <cfRule type="cellIs" dxfId="0" priority="208" operator="greaterThan">
+      <formula>O34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="cellIs" dxfId="0" priority="213" operator="greaterThan">
+      <formula>O35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36">
+    <cfRule type="cellIs" dxfId="0" priority="218" operator="greaterThan">
+      <formula>O36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="cellIs" dxfId="0" priority="168" operator="greaterThan">
+      <formula>O7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="cellIs" dxfId="3" priority="174" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="cellIs" dxfId="3" priority="179" operator="lessThanOrEqual">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="cellIs" dxfId="3" priority="184" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="cellIs" dxfId="3" priority="189" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="cellIs" dxfId="3" priority="194" operator="lessThanOrEqual">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="3" priority="199" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="cellIs" dxfId="3" priority="204" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="cellIs" dxfId="3" priority="209" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="cellIs" dxfId="3" priority="214" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="cellIs" dxfId="3" priority="219" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="cellIs" dxfId="3" priority="169" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="cellIs" dxfId="3" priority="175" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="cellIs" dxfId="3" priority="180" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="3" priority="185" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="3" priority="190" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="3" priority="195" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="3" priority="200" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="cellIs" dxfId="3" priority="205" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34">
+    <cfRule type="cellIs" dxfId="3" priority="210" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="cellIs" dxfId="3" priority="215" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="3" priority="220" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="cellIs" dxfId="3" priority="170" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="0" priority="226" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="196" operator="lessThan">
-      <formula>G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="0" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="227" operator="lessThan">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="0" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="201" operator="lessThan">
-      <formula>G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="0" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="232" operator="lessThan">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="cellIs" dxfId="0" priority="236" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="206" operator="lessThan">
-      <formula>G44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="237" operator="lessThan">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="cellIs" dxfId="0" priority="241" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="242" operator="lessThan">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22">
+    <cfRule type="cellIs" dxfId="0" priority="246" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="247" operator="lessThan">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="0" priority="251" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="252" operator="lessThan">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y33">
+    <cfRule type="cellIs" dxfId="0" priority="256" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="257" operator="lessThan">
+      <formula>G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y34">
+    <cfRule type="cellIs" dxfId="0" priority="261" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="262" operator="lessThan">
+      <formula>G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35">
+    <cfRule type="cellIs" dxfId="0" priority="266" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="267" operator="lessThan">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y36">
+    <cfRule type="cellIs" dxfId="0" priority="271" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="272" operator="lessThan">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="cellIs" dxfId="0" priority="221" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="222" operator="lessThan">
       <formula>G7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="120" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="121" operator="lessThan">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="0" priority="125" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="126" operator="lessThan">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="0" priority="132" operator="greaterThan">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="0" priority="137" operator="greaterThan">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="0" priority="142" operator="greaterThan">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="0" priority="147" operator="greaterThan">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="0" priority="152" operator="greaterThan">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="0" priority="157" operator="greaterThan">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="0" priority="162" operator="greaterThan">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="0" priority="167" operator="greaterThan">
-      <formula>J18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="0" priority="172" operator="greaterThan">
-      <formula>J19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="0" priority="177" operator="greaterThan">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="0" priority="182" operator="greaterThan">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" dxfId="0" priority="187" operator="greaterThan">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="0" priority="192" operator="greaterThan">
-      <formula>J41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="0" priority="197" operator="greaterThan">
-      <formula>J42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="0" priority="202" operator="greaterThan">
-      <formula>J43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="cellIs" dxfId="0" priority="207" operator="greaterThan">
-      <formula>J44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="0" priority="117" operator="greaterThan">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="0" priority="122" operator="greaterThan">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="greaterThan">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="3" priority="133" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="3" priority="138" operator="lessThanOrEqual">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="3" priority="143" operator="lessThanOrEqual">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="3" priority="148" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="3" priority="153" operator="lessThanOrEqual">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="3" priority="158" operator="lessThanOrEqual">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="3" priority="163" operator="lessThanOrEqual">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="3" priority="168" operator="lessThanOrEqual">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="3" priority="173" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="3" priority="178" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="3" priority="183" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="3" priority="188" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
-    <cfRule type="cellIs" dxfId="3" priority="193" operator="lessThanOrEqual">
-      <formula>H41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="3" priority="198" operator="lessThanOrEqual">
-      <formula>H42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="3" priority="203" operator="lessThanOrEqual">
-      <formula>H43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="3" priority="208" operator="lessThanOrEqual">
-      <formula>H44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="3" priority="118" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="3" priority="123" operator="lessThanOrEqual">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="3" priority="128" operator="lessThanOrEqual">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="3" priority="134" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="3" priority="139" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="3" priority="144" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="3" priority="149" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="3" priority="154" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="3" priority="159" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="3" priority="164" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="3" priority="169" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="3" priority="174" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" dxfId="3" priority="179" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="3" priority="184" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="3" priority="189" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M41">
-    <cfRule type="cellIs" dxfId="3" priority="194" operator="lessThanOrEqual">
-      <formula>I41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M42">
-    <cfRule type="cellIs" dxfId="3" priority="199" operator="lessThanOrEqual">
-      <formula>I42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" dxfId="3" priority="204" operator="lessThanOrEqual">
-      <formula>I43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44">
-    <cfRule type="cellIs" dxfId="3" priority="209" operator="lessThanOrEqual">
-      <formula>I44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="119" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="3" priority="124" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="3" priority="129" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="0" priority="215" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="216" operator="lessThan">
-      <formula>G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="0" priority="220" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="221" operator="lessThan">
-      <formula>G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="0" priority="225" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="226" operator="lessThan">
-      <formula>G13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="0" priority="230" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="231" operator="lessThan">
-      <formula>G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
-    <cfRule type="cellIs" dxfId="0" priority="235" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="236" operator="lessThan">
-      <formula>G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
-    <cfRule type="cellIs" dxfId="0" priority="240" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="241" operator="lessThan">
-      <formula>G19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25">
-    <cfRule type="cellIs" dxfId="0" priority="245" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="246" operator="lessThan">
-      <formula>G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26">
-    <cfRule type="cellIs" dxfId="0" priority="250" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="251" operator="lessThan">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27">
-    <cfRule type="cellIs" dxfId="0" priority="255" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="256" operator="lessThan">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O41">
-    <cfRule type="cellIs" dxfId="0" priority="260" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="261" operator="lessThan">
-      <formula>G41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O42">
-    <cfRule type="cellIs" dxfId="0" priority="265" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="266" operator="lessThan">
-      <formula>G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
-    <cfRule type="cellIs" dxfId="0" priority="270" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="271" operator="lessThan">
-      <formula>G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="0" priority="210" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="211" operator="lessThan">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="0" priority="217" operator="greaterThan">
-      <formula>O10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="0" priority="222" operator="greaterThan">
-      <formula>O11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="0" priority="227" operator="greaterThan">
-      <formula>O13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="0" priority="232" operator="greaterThan">
-      <formula>O15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="0" priority="237" operator="greaterThan">
-      <formula>O17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="0" priority="242" operator="greaterThan">
-      <formula>O19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="0" priority="247" operator="greaterThan">
-      <formula>O25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
-    <cfRule type="cellIs" dxfId="0" priority="252" operator="greaterThan">
-      <formula>O26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27">
-    <cfRule type="cellIs" dxfId="0" priority="257" operator="greaterThan">
-      <formula>O27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41">
-    <cfRule type="cellIs" dxfId="0" priority="262" operator="greaterThan">
-      <formula>O41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P42">
-    <cfRule type="cellIs" dxfId="0" priority="267" operator="greaterThan">
-      <formula>O42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P43">
-    <cfRule type="cellIs" dxfId="0" priority="272" operator="greaterThan">
-      <formula>O43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="0" priority="212" operator="greaterThan">
-      <formula>O7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="cellIs" dxfId="3" priority="218" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="3" priority="223" operator="lessThanOrEqual">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="3" priority="228" operator="lessThanOrEqual">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="3" priority="233" operator="lessThanOrEqual">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="3" priority="238" operator="lessThanOrEqual">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="3" priority="243" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25">
-    <cfRule type="cellIs" dxfId="3" priority="248" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
-    <cfRule type="cellIs" dxfId="3" priority="253" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="cellIs" dxfId="3" priority="258" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" dxfId="3" priority="263" operator="lessThanOrEqual">
-      <formula>H41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q42">
-    <cfRule type="cellIs" dxfId="3" priority="268" operator="lessThanOrEqual">
-      <formula>H42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q43">
-    <cfRule type="cellIs" dxfId="3" priority="273" operator="lessThanOrEqual">
-      <formula>H43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="3" priority="213" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="3" priority="219" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="3" priority="224" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="3" priority="229" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="3" priority="234" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="3" priority="239" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="3" priority="244" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="249" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="3" priority="254" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="3" priority="259" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R41">
-    <cfRule type="cellIs" dxfId="3" priority="264" operator="lessThanOrEqual">
-      <formula>I41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42">
-    <cfRule type="cellIs" dxfId="3" priority="269" operator="lessThanOrEqual">
-      <formula>I42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R43">
-    <cfRule type="cellIs" dxfId="3" priority="274" operator="lessThanOrEqual">
-      <formula>I43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="3" priority="214" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" dxfId="0" priority="280" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="281" operator="lessThan">
-      <formula>G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="0" priority="285" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="286" operator="lessThan">
-      <formula>G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
-    <cfRule type="cellIs" dxfId="0" priority="290" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="291" operator="lessThan">
-      <formula>G13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="0" priority="295" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="296" operator="lessThan">
-      <formula>G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="0" priority="300" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="301" operator="lessThan">
-      <formula>G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="0" priority="305" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="306" operator="lessThan">
-      <formula>G19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="0" priority="310" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="311" operator="lessThan">
-      <formula>G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="0" priority="315" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="316" operator="lessThan">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
-    <cfRule type="cellIs" dxfId="0" priority="320" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="321" operator="lessThan">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y41">
-    <cfRule type="cellIs" dxfId="0" priority="325" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="326" operator="lessThan">
-      <formula>G41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y42">
-    <cfRule type="cellIs" dxfId="0" priority="330" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="331" operator="lessThan">
-      <formula>G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y43">
-    <cfRule type="cellIs" dxfId="0" priority="335" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="336" operator="lessThan">
-      <formula>G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y44">
-    <cfRule type="cellIs" dxfId="0" priority="340" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="341" operator="lessThan">
-      <formula>G44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="0" priority="275" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="276" operator="lessThan">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="cellIs" dxfId="0" priority="282" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="228" operator="greaterThan">
       <formula>Y10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="0" priority="287" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="233" operator="greaterThan">
       <formula>Y11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="0" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="238" operator="greaterThan">
       <formula>Y13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15">
-    <cfRule type="cellIs" dxfId="0" priority="297" operator="greaterThan">
-      <formula>Y15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17">
-    <cfRule type="cellIs" dxfId="0" priority="302" operator="greaterThan">
-      <formula>Y17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z19">
-    <cfRule type="cellIs" dxfId="0" priority="307" operator="greaterThan">
-      <formula>Y19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="0" priority="312" operator="greaterThan">
-      <formula>Y25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="0" priority="317" operator="greaterThan">
-      <formula>Y26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="0" priority="322" operator="greaterThan">
-      <formula>Y27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z41">
-    <cfRule type="cellIs" dxfId="0" priority="327" operator="greaterThan">
-      <formula>Y41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="0" priority="332" operator="greaterThan">
-      <formula>Y42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z43">
-    <cfRule type="cellIs" dxfId="0" priority="337" operator="greaterThan">
-      <formula>Y43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z44">
-    <cfRule type="cellIs" dxfId="0" priority="342" operator="greaterThan">
-      <formula>Y44</formula>
+  <conditionalFormatting sqref="Z16">
+    <cfRule type="cellIs" dxfId="0" priority="243" operator="greaterThan">
+      <formula>Y16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22">
+    <cfRule type="cellIs" dxfId="0" priority="248" operator="greaterThan">
+      <formula>Y22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23">
+    <cfRule type="cellIs" dxfId="0" priority="253" operator="greaterThan">
+      <formula>Y23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z33">
+    <cfRule type="cellIs" dxfId="0" priority="258" operator="greaterThan">
+      <formula>Y33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z34">
+    <cfRule type="cellIs" dxfId="0" priority="263" operator="greaterThan">
+      <formula>Y34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z35">
+    <cfRule type="cellIs" dxfId="0" priority="268" operator="greaterThan">
+      <formula>Y35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z36">
+    <cfRule type="cellIs" dxfId="0" priority="273" operator="greaterThan">
+      <formula>Y36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="0" priority="277" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="223" operator="greaterThan">
       <formula>Y7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9072,43 +7594,34 @@
     <hyperlink ref="N11" r:id="rId9"/>
     <hyperlink ref="S11" r:id="rId10"/>
     <hyperlink ref="AC11" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="S13" r:id="rId13"/>
-    <hyperlink ref="AC13" r:id="rId14"/>
-    <hyperlink ref="N14" r:id="rId15"/>
+    <hyperlink ref="N12" r:id="rId12"/>
+    <hyperlink ref="N13" r:id="rId13"/>
+    <hyperlink ref="S13" r:id="rId14"/>
+    <hyperlink ref="AC13" r:id="rId15"/>
     <hyperlink ref="N15" r:id="rId16"/>
-    <hyperlink ref="S15" r:id="rId17"/>
-    <hyperlink ref="AC15" r:id="rId18"/>
-    <hyperlink ref="N16" r:id="rId19"/>
-    <hyperlink ref="N17" r:id="rId20"/>
-    <hyperlink ref="S17" r:id="rId21"/>
-    <hyperlink ref="AC17" r:id="rId22"/>
-    <hyperlink ref="N18" r:id="rId23"/>
-    <hyperlink ref="N19" r:id="rId24"/>
-    <hyperlink ref="S19" r:id="rId25"/>
-    <hyperlink ref="AC19" r:id="rId26"/>
-    <hyperlink ref="N25" r:id="rId27"/>
-    <hyperlink ref="S25" r:id="rId28"/>
-    <hyperlink ref="AC25" r:id="rId29"/>
-    <hyperlink ref="N26" r:id="rId30"/>
-    <hyperlink ref="S26" r:id="rId31"/>
-    <hyperlink ref="AC26" r:id="rId32"/>
-    <hyperlink ref="N27" r:id="rId33"/>
-    <hyperlink ref="S27" r:id="rId34"/>
-    <hyperlink ref="AC27" r:id="rId35"/>
-    <hyperlink ref="N41" r:id="rId36"/>
-    <hyperlink ref="S41" r:id="rId37"/>
-    <hyperlink ref="AC41" r:id="rId38"/>
-    <hyperlink ref="N42" r:id="rId39"/>
-    <hyperlink ref="S42" r:id="rId40"/>
-    <hyperlink ref="AC42" r:id="rId41"/>
-    <hyperlink ref="N43" r:id="rId42"/>
-    <hyperlink ref="S43" r:id="rId43"/>
-    <hyperlink ref="AC43" r:id="rId44"/>
-    <hyperlink ref="N44" r:id="rId45"/>
-    <hyperlink ref="AC44" r:id="rId46"/>
+    <hyperlink ref="N16" r:id="rId17"/>
+    <hyperlink ref="S16" r:id="rId18"/>
+    <hyperlink ref="AC16" r:id="rId19"/>
+    <hyperlink ref="N22" r:id="rId20"/>
+    <hyperlink ref="S22" r:id="rId21"/>
+    <hyperlink ref="AC22" r:id="rId22"/>
+    <hyperlink ref="N23" r:id="rId23"/>
+    <hyperlink ref="S23" r:id="rId24"/>
+    <hyperlink ref="AC23" r:id="rId25"/>
+    <hyperlink ref="N33" r:id="rId26"/>
+    <hyperlink ref="S33" r:id="rId27"/>
+    <hyperlink ref="AC33" r:id="rId28"/>
+    <hyperlink ref="N34" r:id="rId29"/>
+    <hyperlink ref="S34" r:id="rId30"/>
+    <hyperlink ref="AC34" r:id="rId31"/>
+    <hyperlink ref="N35" r:id="rId32"/>
+    <hyperlink ref="S35" r:id="rId33"/>
+    <hyperlink ref="AC35" r:id="rId34"/>
+    <hyperlink ref="N36" r:id="rId35"/>
+    <hyperlink ref="S36" r:id="rId36"/>
+    <hyperlink ref="AC36" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId47"/>
+  <legacyDrawing r:id="rId38"/>
 </worksheet>
 </file>